--- a/foods.xlsx
+++ b/foods.xlsx
@@ -476,7 +476,7 @@
     <t>26.72%</t>
   </si>
   <si>
-    <t>薄鹽清魚飯包</t>
+    <t>薄鹽鯖魚飯包</t>
   </si>
   <si>
     <t>21.33%</t>

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -4,7 +4,10 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="工作表3" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="參考資料" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="工作表7" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="工作表6" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="工作表5" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="參考資料" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="413">
   <si>
     <t>食物名稱</t>
   </si>
@@ -65,7 +68,7 @@
     <t>30%</t>
   </si>
   <si>
-    <t>鲔魚御飯團</t>
+    <t>鮪魚御飯團</t>
   </si>
   <si>
     <t>21.1%</t>
@@ -401,6 +404,9 @@
     <t>13.53%</t>
   </si>
   <si>
+    <t>悟饕池上飯包</t>
+  </si>
+  <si>
     <t>灶咖豬排飯包</t>
   </si>
   <si>
@@ -482,82 +488,88 @@
     <t>21.33%</t>
   </si>
   <si>
-    <t>椒鹽水煮雞胸(給力盒子)</t>
-  </si>
-  <si>
-    <t>南加州火烤雞胸(給力盒子)</t>
-  </si>
-  <si>
-    <t>泰式打拋雞胸(給力盒子)</t>
-  </si>
-  <si>
-    <t>普羅旺斯烤雞腿(給力盒子)</t>
-  </si>
-  <si>
-    <t>蒜泥醬豬肉片(給力盒子)</t>
-  </si>
-  <si>
-    <t>越式酸爽檸檬蝦(給力盒子)</t>
-  </si>
-  <si>
-    <t>十三香滷牛腱(給力盒子)</t>
-  </si>
-  <si>
-    <t>西西里烤蔬菜(給力盒子)</t>
-  </si>
-  <si>
-    <t>鹽烤鯖魚(給力盒子)</t>
-  </si>
-  <si>
-    <t>大厚切烤鮭魚(給力盒子)</t>
-  </si>
-  <si>
-    <t>豆腐食蔬(一日樂食)</t>
-  </si>
-  <si>
-    <t>鷹嘴豆燉蔬菜食蔬(一日樂食)</t>
-  </si>
-  <si>
-    <t>雞肉食蔬(一日樂食)</t>
-  </si>
-  <si>
-    <t>豬肉食蔬(一日樂食)</t>
-  </si>
-  <si>
-    <t>牛肉食蔬(一日樂食)</t>
-  </si>
-  <si>
-    <t>番茄燉牛肉食蔬(一日樂食)</t>
-  </si>
-  <si>
-    <t>鱸魚食蔬(一日樂食)</t>
-  </si>
-  <si>
-    <t>鮭魚食蔬(一日樂食)</t>
-  </si>
-  <si>
-    <t>豆腐低碳餐(一日樂食)</t>
-  </si>
-  <si>
-    <t>鷹嘴豆低碳餐(一日樂食)</t>
-  </si>
-  <si>
-    <t>雞肉低碳餐(一日樂食)</t>
-  </si>
-  <si>
-    <t>豬肉低碳餐(一日樂食)</t>
-  </si>
-  <si>
-    <t>牛肉低碳餐(一日樂食)</t>
-  </si>
-  <si>
-    <t>番茄燉牛肉低碳餐(一日樂食)</t>
-  </si>
-  <si>
-    <t>鱸魚低碳餐(一日樂食)</t>
-  </si>
-  <si>
-    <t>鮭魚低碳餐(一日樂食)</t>
+    <t>椒鹽水煮雞胸</t>
+  </si>
+  <si>
+    <t>給力盒子</t>
+  </si>
+  <si>
+    <t>南加州火烤雞胸</t>
+  </si>
+  <si>
+    <t>泰式打拋雞胸</t>
+  </si>
+  <si>
+    <t>普羅旺斯烤雞腿</t>
+  </si>
+  <si>
+    <t>蒜泥醬豬肉片</t>
+  </si>
+  <si>
+    <t>越式酸爽檸檬蝦</t>
+  </si>
+  <si>
+    <t>十三香滷牛腱</t>
+  </si>
+  <si>
+    <t>西西里烤蔬菜</t>
+  </si>
+  <si>
+    <t>鹽烤鯖魚</t>
+  </si>
+  <si>
+    <t>大厚切烤鮭魚</t>
+  </si>
+  <si>
+    <t>豆腐食蔬</t>
+  </si>
+  <si>
+    <t>一日樂食</t>
+  </si>
+  <si>
+    <t>鷹嘴豆燉蔬菜食蔬</t>
+  </si>
+  <si>
+    <t>雞肉食蔬</t>
+  </si>
+  <si>
+    <t>豬肉食蔬</t>
+  </si>
+  <si>
+    <t>牛肉食蔬</t>
+  </si>
+  <si>
+    <t>番茄燉牛肉食蔬</t>
+  </si>
+  <si>
+    <t>鱸魚食蔬</t>
+  </si>
+  <si>
+    <t>鮭魚食蔬</t>
+  </si>
+  <si>
+    <t>豆腐低碳餐</t>
+  </si>
+  <si>
+    <t>鷹嘴豆低碳餐</t>
+  </si>
+  <si>
+    <t>雞肉低碳餐</t>
+  </si>
+  <si>
+    <t>豬肉低碳餐</t>
+  </si>
+  <si>
+    <t>牛肉低碳餐</t>
+  </si>
+  <si>
+    <t>番茄燉牛肉低碳餐</t>
+  </si>
+  <si>
+    <t>鱸魚低碳餐</t>
+  </si>
+  <si>
+    <t>鮭魚低碳餐</t>
   </si>
   <si>
     <t>豆腐輕便當</t>
@@ -575,7 +587,7 @@
     <t>牛肉輕便當</t>
   </si>
   <si>
-    <t>番茄燉牛肉便當(一日樂食)</t>
+    <t>番茄燉牛肉便當</t>
   </si>
   <si>
     <t>鱸魚輕便當</t>
@@ -584,28 +596,655 @@
     <t>鮭魚輕便當</t>
   </si>
   <si>
-    <t>素食沙拉(一日樂食)</t>
-  </si>
-  <si>
-    <t>雞肉沙拉(一日樂食)</t>
-  </si>
-  <si>
-    <t>豬肉沙拉(一日樂食)</t>
-  </si>
-  <si>
-    <t>牛肉生菜沙拉(一日樂食)</t>
-  </si>
-  <si>
-    <t>青蔬義大利麵(一日樂食)</t>
-  </si>
-  <si>
-    <t>鷹嘴豆義大利麵(一日樂食)</t>
-  </si>
-  <si>
-    <t>番茄雞肉義大利麵(一日樂食)</t>
-  </si>
-  <si>
-    <t>番茄燉牛肉義大利麵(一日樂食)</t>
+    <t>素食沙拉</t>
+  </si>
+  <si>
+    <t>雞肉沙拉</t>
+  </si>
+  <si>
+    <t>豬肉沙拉</t>
+  </si>
+  <si>
+    <t>牛肉生菜沙拉</t>
+  </si>
+  <si>
+    <t>青蔬義大利麵</t>
+  </si>
+  <si>
+    <t>鷹嘴豆義大利麵</t>
+  </si>
+  <si>
+    <t>番茄雞肉義大利麵</t>
+  </si>
+  <si>
+    <t>番茄燉牛肉義大利麵</t>
+  </si>
+  <si>
+    <t>招牌總匯</t>
+  </si>
+  <si>
+    <t>弘爺漢堡</t>
+  </si>
+  <si>
+    <t>豬肉蛋堡</t>
+  </si>
+  <si>
+    <t>咔滋雞腿蛋堡</t>
+  </si>
+  <si>
+    <t>里肌蛋吐司</t>
+  </si>
+  <si>
+    <t>嫩煎里肌鐵板麵</t>
+  </si>
+  <si>
+    <t>歡樂兒童餐</t>
+  </si>
+  <si>
+    <t>香蔥吉拿套餐</t>
+  </si>
+  <si>
+    <t>雙層豬肉起士堡套餐</t>
+  </si>
+  <si>
+    <t>德式香腸捲餅</t>
+  </si>
+  <si>
+    <t>義式雞腿捲餅</t>
+  </si>
+  <si>
+    <t>嫩煎里肌捲餅</t>
+  </si>
+  <si>
+    <t>洋蔥鮪魚捲餅</t>
+  </si>
+  <si>
+    <t>薯泥沙拉捲餅</t>
+  </si>
+  <si>
+    <t>焗烤火腿厚片</t>
+  </si>
+  <si>
+    <t>焗烤培根厚片</t>
+  </si>
+  <si>
+    <t>焗烤鮪魚厚片</t>
+  </si>
+  <si>
+    <t>蔥抓餅加蛋</t>
+  </si>
+  <si>
+    <t>玉米濃湯</t>
+  </si>
+  <si>
+    <t>香蔥吉拿棒</t>
+  </si>
+  <si>
+    <t>檸檬雞柳條</t>
+  </si>
+  <si>
+    <t>蘿蔔糕</t>
+  </si>
+  <si>
+    <t>煎餃</t>
+  </si>
+  <si>
+    <t>薯餅</t>
+  </si>
+  <si>
+    <t>雞塊</t>
+  </si>
+  <si>
+    <t>熱狗</t>
+  </si>
+  <si>
+    <t>里肌蛋餅</t>
+  </si>
+  <si>
+    <t>培根蛋餅</t>
+  </si>
+  <si>
+    <t>起士蛋餅</t>
+  </si>
+  <si>
+    <t>鮮蔬蛋餅</t>
+  </si>
+  <si>
+    <t>肉鬆蛋餅</t>
+  </si>
+  <si>
+    <t>哈辣雞腿歐式燒餅</t>
+  </si>
+  <si>
+    <t>義式雞腿歐式燒餅</t>
+  </si>
+  <si>
+    <t>嫩煎里肌歐式燒餅</t>
+  </si>
+  <si>
+    <t>薯泥沙拉歐式燒餅</t>
+  </si>
+  <si>
+    <t>鮮蔬沙拉歐式燒餅</t>
+  </si>
+  <si>
+    <t>哈辣雞腿香頌</t>
+  </si>
+  <si>
+    <t>起士雞排香頌</t>
+  </si>
+  <si>
+    <t>香燻雞排香頌</t>
+  </si>
+  <si>
+    <t>薯泥沙拉香頌</t>
+  </si>
+  <si>
+    <t>鮮蔬沙拉香頌</t>
+  </si>
+  <si>
+    <t>德式香腸帕瑪森</t>
+  </si>
+  <si>
+    <t>紅茶</t>
+  </si>
+  <si>
+    <t>義式雞腿帕瑪森</t>
+  </si>
+  <si>
+    <t>益菌豆漿</t>
+  </si>
+  <si>
+    <t>嫩煎里肌帕瑪森</t>
+  </si>
+  <si>
+    <t>奶茶</t>
+  </si>
+  <si>
+    <t>洋蔥鮪魚帕瑪森</t>
+  </si>
+  <si>
+    <t>米漿</t>
+  </si>
+  <si>
+    <t>薯泥沙拉帕瑪森</t>
+  </si>
+  <si>
+    <t>薏仁漿</t>
+  </si>
+  <si>
+    <t>柳橙汁</t>
+  </si>
+  <si>
+    <t>蔓越莓汁</t>
+  </si>
+  <si>
+    <t>拿鐵咖啡</t>
+  </si>
+  <si>
+    <t>特調咖啡</t>
+  </si>
+  <si>
+    <t>美式咖啡</t>
+  </si>
+  <si>
+    <t>鴛鴦奶茶</t>
+  </si>
+  <si>
+    <t>薏仁牛奶</t>
+  </si>
+  <si>
+    <t>鮮奶茶</t>
+  </si>
+  <si>
+    <t>豆奶茶</t>
+  </si>
+  <si>
+    <t>豬肉滿福堡加蛋</t>
+  </si>
+  <si>
+    <t>麥當勞</t>
+  </si>
+  <si>
+    <t>豬肉滿福堡</t>
+  </si>
+  <si>
+    <t>無敵豬肉滿福堡加蛋</t>
+  </si>
+  <si>
+    <t>滿福堡®</t>
+  </si>
+  <si>
+    <t>青蔬滿福堡</t>
+  </si>
+  <si>
+    <t>火腿蛋堡</t>
+  </si>
+  <si>
+    <t>吉事蛋堡</t>
+  </si>
+  <si>
+    <t>蕈菇嫩蛋焙果堡</t>
+  </si>
+  <si>
+    <t>番茄嫩蛋焙果堡</t>
+  </si>
+  <si>
+    <t>現烤焙果</t>
+  </si>
+  <si>
+    <t>鷄塊鬆餅大早餐</t>
+  </si>
+  <si>
+    <t>豬肉鬆餅</t>
+  </si>
+  <si>
+    <t>鬆餅(3片)</t>
+  </si>
+  <si>
+    <t>麥香魚®</t>
+  </si>
+  <si>
+    <t>麥克鷄塊®(6塊)</t>
+  </si>
+  <si>
+    <t>麥克鷄塊®(10塊)</t>
+  </si>
+  <si>
+    <t>麥香鷄®+可樂(小)</t>
+  </si>
+  <si>
+    <t>吉事漢堡+紅茶(熱)</t>
+  </si>
+  <si>
+    <t>麥克鷄塊®(4塊)+檸檬風味紅茶(冰)(小)</t>
+  </si>
+  <si>
+    <t>勁辣香鷄翅(一份兩塊)+雪碧(小)</t>
+  </si>
+  <si>
+    <t>薯條(小)+無糖紅茶(冰)(小)</t>
+  </si>
+  <si>
+    <t>大蛋捲冰淇淋+無糖綠茶(冰)(小)</t>
+  </si>
+  <si>
+    <t>蘋果派+可樂(小)</t>
+  </si>
+  <si>
+    <t>麥克雙牛堡+檸檬風味紅茶(冰)(小)</t>
+  </si>
+  <si>
+    <t>麥香魚®+雪碧(小)</t>
+  </si>
+  <si>
+    <t>麥克鷄塊®(6塊)+可樂(小)</t>
+  </si>
+  <si>
+    <t>OREO冰炫風®＋檸檬風味紅茶(冰)(小)</t>
+  </si>
+  <si>
+    <t>大麥克®</t>
+  </si>
+  <si>
+    <t>雙層牛肉吉事堡</t>
+  </si>
+  <si>
+    <t>四盎司牛肉堡</t>
+  </si>
+  <si>
+    <t>雙層四盎司牛肉堡</t>
+  </si>
+  <si>
+    <t>麥香鷄®</t>
+  </si>
+  <si>
+    <t>雙層麥香鷄</t>
+  </si>
+  <si>
+    <t>嫩煎鷄腿堡</t>
+  </si>
+  <si>
+    <t>勁辣鷄腿堡</t>
+  </si>
+  <si>
+    <t>原味麥脆鷄腿(2塊)</t>
+  </si>
+  <si>
+    <t>辣味麥脆鷄腿(2塊)</t>
+  </si>
+  <si>
+    <t>BLT 安格斯牛肉堡</t>
+  </si>
+  <si>
+    <t>BLT 嫩煎鷄腿堡</t>
+  </si>
+  <si>
+    <t>帕瑪森安格斯牛肉堡</t>
+  </si>
+  <si>
+    <t>帕瑪森主廚鷄腿堡</t>
+  </si>
+  <si>
+    <t>蕈菇安格斯牛肉堡</t>
+  </si>
+  <si>
+    <t>蕈菇主廚鷄腿堡</t>
+  </si>
+  <si>
+    <t>凱撒辣脆鷄沙拉</t>
+  </si>
+  <si>
+    <t>義式烤鷄沙拉</t>
+  </si>
+  <si>
+    <t>薯條 (中), 可口可樂 (中)</t>
+  </si>
+  <si>
+    <t>四季沙拉, 檸檬風味紅茶 (冰) (中)</t>
+  </si>
+  <si>
+    <t>麥脆鷄腿一塊(棒腿或大腿)+雪碧 (中)</t>
+  </si>
+  <si>
+    <t>OREO冰炫風®, 薯條 (小), 檸檬風味紅茶 (冰) (中)</t>
+  </si>
+  <si>
+    <t>麥克鷄塊®(6塊), 薯條 (小), 可口可樂zero (中)</t>
+  </si>
+  <si>
+    <t>麥脆鷄腿分享盒(6塊)</t>
+  </si>
+  <si>
+    <t>麥克鷄塊分享盒(20塊)</t>
+  </si>
+  <si>
+    <t>麥克鷄塊(30塊), 薯條 (大)</t>
+  </si>
+  <si>
+    <t>麥脆鷄腿(6塊), 麥克鷄塊®(10塊), 薯條(大)2包</t>
+  </si>
+  <si>
+    <t>勁辣香鷄翅(12塊), 薯條 (大)</t>
+  </si>
+  <si>
+    <t>麥克鷄塊®(4塊), 玉米杯, 蘋果綜合果汁(盒裝)</t>
+  </si>
+  <si>
+    <t>漢堡, 玉米杯, 蘋果綜合果汁(盒裝)</t>
+  </si>
+  <si>
+    <t>陽光鱈魚堡, 水果袋, 蘋果綜合果汁(盒裝)</t>
+  </si>
+  <si>
+    <t>義式濃縮咖啡(熱)</t>
+  </si>
+  <si>
+    <t>經典美式咖啡(熱)</t>
+  </si>
+  <si>
+    <t>經典美式咖啡(冰)</t>
+  </si>
+  <si>
+    <t>經典那堤(熱)</t>
+  </si>
+  <si>
+    <t>經典那堤(冰)</t>
+  </si>
+  <si>
+    <t>經典卡布奇諾(熱)</t>
+  </si>
+  <si>
+    <t>經典卡布奇諾(冰)</t>
+  </si>
+  <si>
+    <t>蜂蜜紅茶(冰)</t>
+  </si>
+  <si>
+    <t>蜂蜜奶茶(熱)</t>
+  </si>
+  <si>
+    <t>蜂蜜奶茶(冰)</t>
+  </si>
+  <si>
+    <t>焦糖奶茶(冰)</t>
+  </si>
+  <si>
+    <t>巧克力(熱)</t>
+  </si>
+  <si>
+    <t>原味可頌</t>
+  </si>
+  <si>
+    <t>巧克力榛果可頌</t>
+  </si>
+  <si>
+    <t>肉桂捲</t>
+  </si>
+  <si>
+    <t>紅茶 (熱)</t>
+  </si>
+  <si>
+    <t>奶茶 (熱)</t>
+  </si>
+  <si>
+    <t>奶茶(冰)</t>
+  </si>
+  <si>
+    <t>台灣鮮榨柳丁汁(瓶裝)</t>
+  </si>
+  <si>
+    <t>鮮乳(盒裝)</t>
+  </si>
+  <si>
+    <t>可口可樂(S)</t>
+  </si>
+  <si>
+    <t>可口可樂(M)</t>
+  </si>
+  <si>
+    <t>可口可樂zero</t>
+  </si>
+  <si>
+    <t>雪碧(S)</t>
+  </si>
+  <si>
+    <t>雪碧(M)</t>
+  </si>
+  <si>
+    <t>檸檬風味紅茶 (冰)(S)</t>
+  </si>
+  <si>
+    <t>檸檬風味紅茶 (冰)(M)</t>
+  </si>
+  <si>
+    <t>麥克雙牛堡</t>
+  </si>
+  <si>
+    <t>漢堡</t>
+  </si>
+  <si>
+    <t>吉事漢堡</t>
+  </si>
+  <si>
+    <t>薯條(S)</t>
+  </si>
+  <si>
+    <t>薯條(M)</t>
+  </si>
+  <si>
+    <t>薯條(L)</t>
+  </si>
+  <si>
+    <t>原味麥脆鷄腿(棒腿)</t>
+  </si>
+  <si>
+    <t>原味麥脆鷄腿(大腿)</t>
+  </si>
+  <si>
+    <t>辣味麥脆鷄腿(棒腿)</t>
+  </si>
+  <si>
+    <t>辣味麥脆鷄腿(大腿)</t>
+  </si>
+  <si>
+    <t>勁辣香鷄翅(2塊)</t>
+  </si>
+  <si>
+    <t>蘋果派</t>
+  </si>
+  <si>
+    <t>玉米杯</t>
+  </si>
+  <si>
+    <t>四季沙拉</t>
+  </si>
+  <si>
+    <t>水果袋</t>
+  </si>
+  <si>
+    <t>玉米湯(S)</t>
+  </si>
+  <si>
+    <t>玉米湯(L)</t>
+  </si>
+  <si>
+    <t>蛋捲冰淇淋</t>
+  </si>
+  <si>
+    <t>大蛋捲冰淇淋</t>
+  </si>
+  <si>
+    <t>OREO冰炫風®</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 275kcal | Fat: 21.77g | Carbs: 5.22g | Protein: 13.95g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 230kcal | Fat: 19.30g | Carbs: 2.60g | Protein: 11.50g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 307kcal | Fat: 27.70g | Carbs: 3.20g | Protein: 11.10g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 466kcal | Fat: 40.28g | Carbs: 4.04g | Protein: 20.35g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 310kcal | Fat: 27.15g | Carbs: 2.14g | Protein: 13.26g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 344kcal | Fat: 27.31g | Carbs: 4.27g | Protein: 19.12g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 339kcal | Fat: 28.36g | Carbs: 0.00g | Protein: 19.43g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 258kcal | Fat: 22.20g | Carbs: 1.90g | Protein: 12.60g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 320kcal | Fat: 28.73g | Carbs: 2.42g | Protein: 12.00g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 209kcal | Fat: 16.05g | Carbs: 4.68g | Protein: 11.42g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 200kcal | Fat: 10.30g | Carbs: 10.77g | Protein: 17.00g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 307kcal | Fat: 23.00g | Carbs: 0.70g | Protein: 22.70g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 165kcal | Fat: 7.70g | Carbs: 0.50g | Protein: 22.00g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 110kcal | Fat: 2.86g | Carbs: 2.63g | Protein: 17.28g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 196kcal | Fat: 13.90g | Carbs: 1.35g | Protein: 15.23g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 210kcal | Fat: 14.64g | Carbs: 4.26g | Protein: 14.65g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 152kcal | Fat: 9.40g | Carbs: 0.40g | Protein: 15.30g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 104kcal | Fat: 1.66g | Carbs: 4.21g | Protein: 17.07g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 334kcal | Fat: 30.30g | Carbs: 2.10g | Protein: 12.50g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 407kcal | Fat: 37.63g | Carbs: 2.36g | Protein: 13.70g</t>
+  </si>
+  <si>
+    <t>Food description: Per 498g - Calories: 239kcal | Fat: 5.08g | Carbs: 29.06g | Protein: 19.36g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 42kcal | Fat: 1.66g | Carbs: 3.65g | Protein: 3.22g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 250kcal | Fat: 20.11g | Carbs: 2.25g | Protein: 13.92g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 61kcal | Fat: 3.25g | Carbs: 4.66g | Protein: 3.47g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 250kcal | Fat: 14.93g | Carbs: 0.00g | Protein: 27.10g</t>
+  </si>
+  <si>
+    <t>Food description: Per 980g - Calories: 323kcal | Fat: 0.69g | Carbs: 47.52g | Protein: 31.94g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 396kcal | Fat: 36.25g | Carbs: 2.70g | Protein: 13.80g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 249kcal | Fat: 13.25g | Carbs: 21.18g | Protein: 11.04g</t>
+  </si>
+  <si>
+    <t>Food description: Per 986g - Calories: 631kcal | Fat: 34.21g | Carbs: 49.20g | Protein: 33.72g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 227kcal | Fat: 14.76g | Carbs: 14.96g | Protein: 8.57g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 315kcal | Fat: 26.60g | Carbs: 4.60g | Protein: 13.40g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 210kcal | Fat: 9.71g | Carbs: 0.00g | Protein: 28.89g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 34kcal | Fat: 0.17g | Carbs: 4.86g | Protein: 3.26g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 240kcal | Fat: 16.80g | Carbs: 2.60g | Protein: 18.60g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 230kcal | Fat: 16.23g | Carbs: 8.83g | Protein: 11.52g</t>
+  </si>
+  <si>
+    <t>Food description: Per 920g - Calories: 349kcal | Fat: 5.24g | Carbs: 44.14g | Protein: 30.90g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 101kcal | Fat: 2.50g | Carbs: 11.50g | Protein: 8.00g</t>
+  </si>
+  <si>
+    <t>Food description: Per 100g - Calories: 126kcal | Fat: 4.84g | Carbs: 2.04g | Protein: 17.50g</t>
+  </si>
+  <si>
+    <t>捲餅</t>
+  </si>
+  <si>
+    <t>BURRITO</t>
+  </si>
+  <si>
+    <t>1274 l</t>
+  </si>
+  <si>
+    <t>210 l</t>
+  </si>
+  <si>
+    <t>140 l</t>
   </si>
   <si>
     <t>國民健康署/熱量知多少</t>
@@ -621,7 +1260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -630,16 +1269,30 @@
     </font>
     <font>
       <b/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Microsoft JhengHei"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Microsoft JhengHei"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF292929"/>
+      <name val="Speedee"/>
     </font>
     <font>
       <color theme="1"/>
@@ -647,16 +1300,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -665,7 +1335,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -693,10 +1363,22 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -712,6 +1394,18 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -922,7 +1616,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.13"/>
+    <col customWidth="1" min="1" max="1" width="37.0"/>
     <col customWidth="1" min="2" max="3" width="17.13"/>
     <col customWidth="1" min="4" max="4" width="10.5"/>
     <col customWidth="1" min="5" max="5" width="8.88"/>
@@ -3390,7 +4084,9 @@
       <c r="G62" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H62" s="9"/>
+      <c r="H62" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I62" s="10"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -3410,7 +4106,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7">
@@ -3426,9 +4122,11 @@
         <v>102.5</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H63" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I63" s="10"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -3448,7 +4146,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7">
@@ -3466,7 +4164,9 @@
       <c r="G64" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H64" s="9"/>
+      <c r="H64" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I64" s="10"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -3486,7 +4186,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7">
@@ -3502,9 +4202,11 @@
         <v>95.2</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H65" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I65" s="10"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -3524,7 +4226,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7">
@@ -3540,9 +4242,11 @@
         <v>112.4</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H66" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I66" s="10"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -3562,7 +4266,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7">
@@ -3578,9 +4282,11 @@
         <v>107.9</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H67" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I67" s="10"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -3600,7 +4306,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7">
@@ -3616,9 +4322,11 @@
         <v>100.5</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H68" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I68" s="10"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -3638,7 +4346,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7">
@@ -3654,9 +4362,11 @@
         <v>99.0</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H69" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I69" s="10"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -3676,7 +4386,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7">
@@ -3692,9 +4402,11 @@
         <v>103.4</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H70" s="9"/>
+        <v>144</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I70" s="10"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -3714,7 +4426,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7">
@@ -3732,7 +4444,9 @@
       <c r="G71" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H71" s="9"/>
+      <c r="H71" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I71" s="10"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -3752,7 +4466,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7">
@@ -3770,7 +4484,9 @@
       <c r="G72" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H72" s="9"/>
+      <c r="H72" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I72" s="10"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -3790,7 +4506,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7">
@@ -3806,9 +4522,11 @@
         <v>107.8</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H73" s="9"/>
+        <v>148</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I73" s="10"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -3828,7 +4546,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7">
@@ -3844,9 +4562,11 @@
         <v>117.7</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H74" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I74" s="10"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -3866,7 +4586,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7">
@@ -3882,9 +4602,11 @@
         <v>97.7</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H75" s="9"/>
+        <v>152</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I75" s="10"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -3904,7 +4626,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7">
@@ -3920,9 +4642,11 @@
         <v>103.3</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H76" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I76" s="10"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -3942,7 +4666,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7">
@@ -3958,9 +4682,11 @@
         <v>99.7</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H77" s="9"/>
+        <v>156</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I77" s="10"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -3980,7 +4706,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="7">
@@ -3998,7 +4724,9 @@
       <c r="G78" s="8">
         <v>0.105</v>
       </c>
-      <c r="H78" s="2"/>
+      <c r="H78" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="I78" s="4"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -4018,7 +4746,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="7">
@@ -4036,7 +4764,9 @@
       <c r="G79" s="8">
         <v>0.102</v>
       </c>
-      <c r="H79" s="2"/>
+      <c r="H79" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="I79" s="4"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -4056,7 +4786,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="7">
@@ -4074,7 +4804,9 @@
       <c r="G80" s="8">
         <v>0.088</v>
       </c>
-      <c r="H80" s="2"/>
+      <c r="H80" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="I80" s="4"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -4094,7 +4826,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="7">
@@ -4112,7 +4844,9 @@
       <c r="G81" s="8">
         <v>0.256</v>
       </c>
-      <c r="H81" s="2"/>
+      <c r="H81" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="I81" s="4"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -4132,7 +4866,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="7">
@@ -4150,7 +4884,9 @@
       <c r="G82" s="8">
         <v>0.135</v>
       </c>
-      <c r="H82" s="2"/>
+      <c r="H82" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="I82" s="4"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -4170,7 +4906,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="7">
@@ -4188,7 +4924,9 @@
       <c r="G83" s="8">
         <v>0.059</v>
       </c>
-      <c r="H83" s="2"/>
+      <c r="H83" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="I83" s="4"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -4208,7 +4946,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="7">
@@ -4226,7 +4964,9 @@
       <c r="G84" s="8">
         <v>0.111</v>
       </c>
-      <c r="H84" s="2"/>
+      <c r="H84" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="I84" s="4"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -4246,7 +4986,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="7">
@@ -4264,7 +5004,9 @@
       <c r="G85" s="8">
         <v>0.064</v>
       </c>
-      <c r="H85" s="2"/>
+      <c r="H85" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="I85" s="4"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -4284,7 +5026,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="7">
@@ -4302,7 +5044,9 @@
       <c r="G86" s="8">
         <v>0.13</v>
       </c>
-      <c r="H86" s="2"/>
+      <c r="H86" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="I86" s="4"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -4322,7 +5066,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="7">
@@ -4340,7 +5084,9 @@
       <c r="G87" s="8">
         <v>0.223</v>
       </c>
-      <c r="H87" s="2"/>
+      <c r="H87" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="I87" s="4"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -4360,7 +5106,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B88" s="7">
         <v>493.0</v>
@@ -4378,10 +5124,12 @@
         <v>38.0</v>
       </c>
       <c r="G88" s="8">
-        <f t="shared" ref="G88:G119" si="1">round((E88*9)/C88,3)</f>
+        <f t="shared" ref="G88:G121" si="1">round((E88*9)/C88,3)</f>
         <v>0.256</v>
       </c>
-      <c r="H88" s="2"/>
+      <c r="H88" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I88" s="4"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -4401,7 +5149,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B89" s="7">
         <v>563.0</v>
@@ -4422,7 +5170,9 @@
         <f t="shared" si="1"/>
         <v>0.346</v>
       </c>
-      <c r="H89" s="2"/>
+      <c r="H89" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I89" s="4"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -4442,7 +5192,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B90" s="7">
         <v>423.0</v>
@@ -4463,7 +5213,9 @@
         <f t="shared" si="1"/>
         <v>0.311</v>
       </c>
-      <c r="H90" s="2"/>
+      <c r="H90" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I90" s="4"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -4483,7 +5235,7 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B91" s="7">
         <v>413.0</v>
@@ -4504,7 +5256,9 @@
         <f t="shared" si="1"/>
         <v>0.436</v>
       </c>
-      <c r="H91" s="2"/>
+      <c r="H91" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I91" s="4"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -4524,7 +5278,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B92" s="7">
         <v>403.0</v>
@@ -4545,7 +5299,9 @@
         <f t="shared" si="1"/>
         <v>0.404</v>
       </c>
-      <c r="H92" s="2"/>
+      <c r="H92" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I92" s="4"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -4565,7 +5321,7 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B93" s="7">
         <v>551.0</v>
@@ -4586,7 +5342,9 @@
         <f t="shared" si="1"/>
         <v>0.385</v>
       </c>
-      <c r="H93" s="2"/>
+      <c r="H93" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I93" s="4"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -4606,7 +5364,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B94" s="7">
         <v>433.0</v>
@@ -4627,7 +5385,9 @@
         <f t="shared" si="1"/>
         <v>0.323</v>
       </c>
-      <c r="H94" s="2"/>
+      <c r="H94" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I94" s="4"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -4647,7 +5407,7 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B95" s="7">
         <v>433.0</v>
@@ -4668,7 +5428,9 @@
         <f t="shared" si="1"/>
         <v>0.408</v>
       </c>
-      <c r="H95" s="2"/>
+      <c r="H95" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I95" s="4"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -4688,7 +5450,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B96" s="7">
         <v>365.0</v>
@@ -4709,7 +5471,9 @@
         <f t="shared" si="1"/>
         <v>0.465</v>
       </c>
-      <c r="H96" s="2"/>
+      <c r="H96" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I96" s="4"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -4729,7 +5493,7 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B97" s="7">
         <v>436.0</v>
@@ -4750,7 +5514,9 @@
         <f t="shared" si="1"/>
         <v>0.498</v>
       </c>
-      <c r="H97" s="2"/>
+      <c r="H97" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I97" s="4"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -4770,7 +5536,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B98" s="7">
         <v>446.0</v>
@@ -4791,7 +5557,9 @@
         <f t="shared" si="1"/>
         <v>0.379</v>
       </c>
-      <c r="H98" s="2"/>
+      <c r="H98" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I98" s="4"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -4811,7 +5579,7 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B99" s="7">
         <v>436.0</v>
@@ -4832,7 +5600,9 @@
         <f t="shared" si="1"/>
         <v>0.532</v>
       </c>
-      <c r="H99" s="2"/>
+      <c r="H99" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I99" s="4"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -4852,7 +5622,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B100" s="7">
         <v>436.0</v>
@@ -4873,7 +5643,9 @@
         <f t="shared" si="1"/>
         <v>0.505</v>
       </c>
-      <c r="H100" s="2"/>
+      <c r="H100" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I100" s="4"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -4893,7 +5665,7 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B101" s="7">
         <v>356.0</v>
@@ -4914,7 +5686,9 @@
         <f t="shared" si="1"/>
         <v>0.476</v>
       </c>
-      <c r="H101" s="2"/>
+      <c r="H101" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I101" s="4"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
@@ -4934,7 +5708,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B102" s="7">
         <v>386.0</v>
@@ -4955,7 +5729,9 @@
         <f t="shared" si="1"/>
         <v>0.423</v>
       </c>
-      <c r="H102" s="2"/>
+      <c r="H102" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I102" s="4"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -4975,7 +5751,7 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B103" s="7">
         <v>386.0</v>
@@ -4996,7 +5772,9 @@
         <f t="shared" si="1"/>
         <v>0.445</v>
       </c>
-      <c r="H103" s="2"/>
+      <c r="H103" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I103" s="4"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -5016,7 +5794,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B104" s="7">
         <v>478.0</v>
@@ -5037,7 +5815,9 @@
         <f t="shared" si="1"/>
         <v>0.223</v>
       </c>
-      <c r="H104" s="2"/>
+      <c r="H104" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I104" s="4"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -5057,7 +5837,7 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B105" s="7">
         <v>590.0</v>
@@ -5078,7 +5858,9 @@
         <f t="shared" si="1"/>
         <v>0.216</v>
       </c>
-      <c r="H105" s="2"/>
+      <c r="H105" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I105" s="4"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -5098,7 +5880,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B106" s="7">
         <v>532.0</v>
@@ -5119,7 +5901,9 @@
         <f t="shared" si="1"/>
         <v>0.298</v>
       </c>
-      <c r="H106" s="2"/>
+      <c r="H106" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I106" s="4"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -5139,7 +5923,7 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B107" s="7">
         <v>465.0</v>
@@ -5160,7 +5944,9 @@
         <f t="shared" si="1"/>
         <v>0.277</v>
       </c>
-      <c r="H107" s="2"/>
+      <c r="H107" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I107" s="4"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -5180,7 +5966,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B108" s="7">
         <v>455.0</v>
@@ -5201,7 +5987,9 @@
         <f t="shared" si="1"/>
         <v>0.247</v>
       </c>
-      <c r="H108" s="2"/>
+      <c r="H108" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I108" s="4"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -5221,7 +6009,7 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B109" s="7">
         <v>670.0</v>
@@ -5242,7 +6030,9 @@
         <f t="shared" si="1"/>
         <v>0.276</v>
       </c>
-      <c r="H109" s="2"/>
+      <c r="H109" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I109" s="4"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -5262,7 +6052,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B110" s="7">
         <v>485.0</v>
@@ -5283,7 +6073,9 @@
         <f t="shared" si="1"/>
         <v>0.185</v>
       </c>
-      <c r="H110" s="2"/>
+      <c r="H110" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I110" s="4"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
@@ -5303,7 +6095,7 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B111" s="7">
         <v>485.0</v>
@@ -5324,7 +6116,9 @@
         <f t="shared" si="1"/>
         <v>0.257</v>
       </c>
-      <c r="H111" s="2"/>
+      <c r="H111" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I111" s="4"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
@@ -5344,7 +6138,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B112" s="7">
         <v>288.0</v>
@@ -5365,7 +6159,9 @@
         <f t="shared" si="1"/>
         <v>0.481</v>
       </c>
-      <c r="H112" s="2"/>
+      <c r="H112" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I112" s="4"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -5385,7 +6181,7 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B113" s="7">
         <v>338.0</v>
@@ -5406,7 +6202,9 @@
         <f t="shared" si="1"/>
         <v>0.379</v>
       </c>
-      <c r="H113" s="2"/>
+      <c r="H113" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I113" s="4"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -5426,7 +6224,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B114" s="7">
         <v>358.0</v>
@@ -5447,7 +6245,9 @@
         <f t="shared" si="1"/>
         <v>0.539</v>
       </c>
-      <c r="H114" s="2"/>
+      <c r="H114" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I114" s="4"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
@@ -5467,7 +6267,7 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B115" s="7">
         <v>348.0</v>
@@ -5488,7 +6288,9 @@
         <f t="shared" si="1"/>
         <v>0.477</v>
       </c>
-      <c r="H115" s="2"/>
+      <c r="H115" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I115" s="4"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
@@ -5508,7 +6310,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B116" s="7">
         <v>311.0</v>
@@ -5529,7 +6331,9 @@
         <f t="shared" si="1"/>
         <v>0.474</v>
       </c>
-      <c r="H116" s="2"/>
+      <c r="H116" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I116" s="4"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
@@ -5549,7 +6353,7 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B117" s="7">
         <v>331.0</v>
@@ -5570,7 +6374,9 @@
         <f t="shared" si="1"/>
         <v>0.483</v>
       </c>
-      <c r="H117" s="2"/>
+      <c r="H117" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I117" s="4"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
@@ -5590,7 +6396,7 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B118" s="7">
         <v>200.0</v>
@@ -5611,7 +6417,9 @@
         <f t="shared" si="1"/>
         <v>0.448</v>
       </c>
-      <c r="H118" s="2"/>
+      <c r="H118" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I118" s="4"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
@@ -5631,7 +6439,7 @@
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B119" s="7">
         <v>401.0</v>
@@ -5652,7 +6460,9 @@
         <f t="shared" si="1"/>
         <v>0.442</v>
       </c>
-      <c r="H119" s="2"/>
+      <c r="H119" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I119" s="4"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
@@ -5671,14 +6481,29 @@
       <c r="X119" s="4"/>
     </row>
     <row r="120">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="2"/>
+      <c r="A120" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="7">
+        <v>871.2</v>
+      </c>
+      <c r="D120" s="7">
+        <v>36.4</v>
+      </c>
+      <c r="E120" s="7">
+        <v>43.5</v>
+      </c>
+      <c r="F120" s="7">
+        <v>101.8</v>
+      </c>
+      <c r="G120" s="8">
+        <f t="shared" si="1"/>
+        <v>0.449</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I120" s="4"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
@@ -5697,14 +6522,29 @@
       <c r="X120" s="4"/>
     </row>
     <row r="121">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="2"/>
+      <c r="A121" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="7">
+        <v>546.9</v>
+      </c>
+      <c r="D121" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="E121" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="F121" s="7">
+        <v>57.1</v>
+      </c>
+      <c r="G121" s="8">
+        <f t="shared" si="1"/>
+        <v>0.402</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I121" s="4"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
@@ -5723,14 +6563,26 @@
       <c r="X121" s="4"/>
     </row>
     <row r="122">
-      <c r="A122" s="4"/>
+      <c r="A122" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
+      <c r="C122" s="7">
+        <v>787.0</v>
+      </c>
+      <c r="D122" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="E122" s="7">
+        <v>48.6</v>
+      </c>
+      <c r="F122" s="7">
+        <v>56.5</v>
+      </c>
       <c r="G122" s="4"/>
-      <c r="H122" s="2"/>
+      <c r="H122" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I122" s="4"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
@@ -5749,14 +6601,26 @@
       <c r="X122" s="4"/>
     </row>
     <row r="123">
-      <c r="A123" s="4"/>
+      <c r="A123" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
+      <c r="C123" s="7">
+        <v>568.3</v>
+      </c>
+      <c r="D123" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="E123" s="7">
+        <v>31.2</v>
+      </c>
+      <c r="F123" s="7">
+        <v>46.0</v>
+      </c>
       <c r="G123" s="4"/>
-      <c r="H123" s="2"/>
+      <c r="H123" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I123" s="4"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
@@ -5775,14 +6639,26 @@
       <c r="X123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="4"/>
+      <c r="A124" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="2"/>
+      <c r="C124" s="7">
+        <v>626.3</v>
+      </c>
+      <c r="D124" s="7">
+        <v>32.2</v>
+      </c>
+      <c r="E124" s="7">
+        <v>21.1</v>
+      </c>
+      <c r="F124" s="7">
+        <v>68.3</v>
+      </c>
+      <c r="G124" s="7"/>
+      <c r="H124" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I124" s="4"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
@@ -5801,14 +6677,26 @@
       <c r="X124" s="4"/>
     </row>
     <row r="125">
-      <c r="A125" s="4"/>
+      <c r="A125" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
+      <c r="C125" s="7">
+        <v>677.3</v>
+      </c>
+      <c r="D125" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="E125" s="7">
+        <v>29.2</v>
+      </c>
+      <c r="F125" s="7">
+        <v>88.4</v>
+      </c>
       <c r="G125" s="4"/>
-      <c r="H125" s="2"/>
+      <c r="H125" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I125" s="4"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
@@ -5827,14 +6715,26 @@
       <c r="X125" s="4"/>
     </row>
     <row r="126">
-      <c r="A126" s="4"/>
+      <c r="A126" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
+      <c r="C126" s="7">
+        <v>544.1</v>
+      </c>
+      <c r="D126" s="7">
+        <v>18.9</v>
+      </c>
+      <c r="E126" s="7">
+        <v>14.9</v>
+      </c>
+      <c r="F126" s="7">
+        <v>61.5</v>
+      </c>
       <c r="G126" s="4"/>
-      <c r="H126" s="2"/>
+      <c r="H126" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I126" s="4"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
@@ -5853,14 +6753,26 @@
       <c r="X126" s="4"/>
     </row>
     <row r="127">
-      <c r="A127" s="4"/>
+      <c r="A127" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
+      <c r="C127" s="7">
+        <v>805.1</v>
+      </c>
+      <c r="D127" s="7">
+        <v>32.8</v>
+      </c>
+      <c r="E127" s="7">
+        <v>34.5</v>
+      </c>
+      <c r="F127" s="7">
+        <v>90.2</v>
+      </c>
       <c r="G127" s="4"/>
-      <c r="H127" s="2"/>
+      <c r="H127" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I127" s="4"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
@@ -5879,14 +6791,20 @@
       <c r="X127" s="4"/>
     </row>
     <row r="128">
-      <c r="A128" s="4"/>
+      <c r="A128" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
+      <c r="C128" s="7">
+        <v>384.0</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
       <c r="G128" s="4"/>
-      <c r="H128" s="2"/>
+      <c r="H128" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I128" s="4"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
@@ -5905,14 +6823,20 @@
       <c r="X128" s="4"/>
     </row>
     <row r="129">
-      <c r="A129" s="4"/>
+      <c r="A129" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
+      <c r="C129" s="7">
+        <v>343.0</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="2"/>
+      <c r="H129" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I129" s="4"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
@@ -5931,14 +6855,20 @@
       <c r="X129" s="4"/>
     </row>
     <row r="130">
-      <c r="A130" s="4"/>
+      <c r="A130" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
+      <c r="C130" s="7">
+        <v>351.0</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="2"/>
+      <c r="H130" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I130" s="4"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
@@ -5957,14 +6887,20 @@
       <c r="X130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="4"/>
+      <c r="A131" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
+      <c r="C131" s="7">
+        <v>298.0</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="2"/>
+      <c r="H131" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I131" s="4"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
@@ -5983,14 +6919,20 @@
       <c r="X131" s="4"/>
     </row>
     <row r="132">
-      <c r="A132" s="4"/>
+      <c r="A132" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
+      <c r="C132" s="7">
+        <v>311.0</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="2"/>
+      <c r="H132" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I132" s="4"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
@@ -6009,14 +6951,20 @@
       <c r="X132" s="4"/>
     </row>
     <row r="133">
-      <c r="A133" s="4"/>
+      <c r="A133" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
+      <c r="C133" s="7">
+        <v>298.0</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="2"/>
+      <c r="H133" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I133" s="4"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
@@ -6035,14 +6983,20 @@
       <c r="X133" s="4"/>
     </row>
     <row r="134">
-      <c r="A134" s="4"/>
+      <c r="A134" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
+      <c r="C134" s="7">
+        <v>1313.0</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="2"/>
+      <c r="H134" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I134" s="4"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
@@ -6061,14 +7015,20 @@
       <c r="X134" s="4"/>
     </row>
     <row r="135">
-      <c r="A135" s="4"/>
+      <c r="A135" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
+      <c r="C135" s="7">
+        <v>1274.0</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="2"/>
+      <c r="H135" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I135" s="4"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
@@ -6087,14 +7047,20 @@
       <c r="X135" s="4"/>
     </row>
     <row r="136">
-      <c r="A136" s="4"/>
+      <c r="A136" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
+      <c r="C136" s="7">
+        <v>1268.0</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="2"/>
+      <c r="H136" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I136" s="4"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
@@ -6113,14 +7079,20 @@
       <c r="X136" s="4"/>
     </row>
     <row r="137">
-      <c r="A137" s="4"/>
+      <c r="A137" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
+      <c r="C137" s="7">
+        <v>280.0</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="2"/>
+      <c r="H137" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I137" s="4"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
@@ -6139,14 +7111,20 @@
       <c r="X137" s="4"/>
     </row>
     <row r="138">
-      <c r="A138" s="4"/>
+      <c r="A138" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
+      <c r="C138" s="7">
+        <v>143.0</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="2"/>
+      <c r="H138" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I138" s="4"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
@@ -6165,14 +7143,20 @@
       <c r="X138" s="4"/>
     </row>
     <row r="139">
-      <c r="A139" s="4"/>
+      <c r="A139" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
+      <c r="C139" s="7">
+        <v>526.0</v>
+      </c>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="2"/>
+      <c r="H139" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I139" s="4"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
@@ -6191,14 +7175,20 @@
       <c r="X139" s="4"/>
     </row>
     <row r="140">
-      <c r="A140" s="4"/>
+      <c r="A140" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
+      <c r="C140" s="7">
+        <v>210.0</v>
+      </c>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="2"/>
+      <c r="H140" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I140" s="4"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
@@ -6217,14 +7207,20 @@
       <c r="X140" s="4"/>
     </row>
     <row r="141">
-      <c r="A141" s="4"/>
+      <c r="A141" s="7" t="s">
+        <v>222</v>
+      </c>
       <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
+      <c r="C141" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="2"/>
+      <c r="H141" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I141" s="4"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
@@ -6243,14 +7239,20 @@
       <c r="X141" s="4"/>
     </row>
     <row r="142">
-      <c r="A142" s="4"/>
+      <c r="A142" s="7" t="s">
+        <v>223</v>
+      </c>
       <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
+      <c r="C142" s="7">
+        <v>265.0</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="2"/>
+      <c r="H142" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I142" s="4"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
@@ -6269,14 +7271,20 @@
       <c r="X142" s="4"/>
     </row>
     <row r="143">
-      <c r="A143" s="4"/>
+      <c r="A143" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
+      <c r="C143" s="7">
+        <v>152.0</v>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
       <c r="G143" s="4"/>
-      <c r="H143" s="2"/>
+      <c r="H143" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I143" s="4"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
@@ -6295,14 +7303,20 @@
       <c r="X143" s="4"/>
     </row>
     <row r="144">
-      <c r="A144" s="4"/>
+      <c r="A144" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
+      <c r="C144" s="7">
+        <v>230.0</v>
+      </c>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
       <c r="G144" s="4"/>
-      <c r="H144" s="2"/>
+      <c r="H144" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I144" s="4"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
@@ -6321,14 +7335,20 @@
       <c r="X144" s="4"/>
     </row>
     <row r="145">
-      <c r="A145" s="4"/>
+      <c r="A145" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
+      <c r="C145" s="7">
+        <v>226.2</v>
+      </c>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
       <c r="G145" s="4"/>
-      <c r="H145" s="2"/>
+      <c r="H145" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I145" s="4"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
@@ -6347,14 +7367,20 @@
       <c r="X145" s="4"/>
     </row>
     <row r="146">
-      <c r="A146" s="4"/>
+      <c r="A146" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
+      <c r="C146" s="7">
+        <v>124.0</v>
+      </c>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="2"/>
+      <c r="H146" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I146" s="4"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
@@ -6373,14 +7399,20 @@
       <c r="X146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="4"/>
+      <c r="A147" s="7" t="s">
+        <v>227</v>
+      </c>
       <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
+      <c r="C147" s="7">
+        <v>277.0</v>
+      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="2"/>
+      <c r="H147" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I147" s="4"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
@@ -6399,14 +7431,20 @@
       <c r="X147" s="4"/>
     </row>
     <row r="148">
-      <c r="A148" s="4"/>
+      <c r="A148" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
+      <c r="C148" s="7">
+        <v>252.0</v>
+      </c>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="2"/>
+      <c r="H148" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I148" s="4"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
@@ -6425,14 +7463,20 @@
       <c r="X148" s="4"/>
     </row>
     <row r="149">
-      <c r="A149" s="4"/>
+      <c r="A149" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
+      <c r="C149" s="7">
+        <v>268.0</v>
+      </c>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="2"/>
+      <c r="H149" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I149" s="4"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
@@ -6451,14 +7495,20 @@
       <c r="X149" s="4"/>
     </row>
     <row r="150">
-      <c r="A150" s="4"/>
+      <c r="A150" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
+      <c r="C150" s="7">
+        <v>225.0</v>
+      </c>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="2"/>
+      <c r="H150" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I150" s="4"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
@@ -6477,14 +7527,20 @@
       <c r="X150" s="4"/>
     </row>
     <row r="151">
-      <c r="A151" s="4"/>
+      <c r="A151" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
+      <c r="C151" s="7">
+        <v>239.0</v>
+      </c>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="2"/>
+      <c r="H151" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I151" s="4"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
@@ -6503,14 +7559,20 @@
       <c r="X151" s="4"/>
     </row>
     <row r="152">
-      <c r="A152" s="4"/>
+      <c r="A152" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
+      <c r="C152" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="2"/>
+      <c r="H152" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I152" s="4"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
@@ -6529,14 +7591,20 @@
       <c r="X152" s="4"/>
     </row>
     <row r="153">
-      <c r="A153" s="4"/>
+      <c r="A153" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
+      <c r="C153" s="7">
+        <v>216.0</v>
+      </c>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="2"/>
+      <c r="H153" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I153" s="4"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
@@ -6555,14 +7623,20 @@
       <c r="X153" s="4"/>
     </row>
     <row r="154">
-      <c r="A154" s="4"/>
+      <c r="A154" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
+      <c r="C154" s="7">
+        <v>289.0</v>
+      </c>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
       <c r="G154" s="4"/>
-      <c r="H154" s="2"/>
+      <c r="H154" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I154" s="4"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
@@ -6581,14 +7655,20 @@
       <c r="X154" s="4"/>
     </row>
     <row r="155">
-      <c r="A155" s="4"/>
+      <c r="A155" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
+      <c r="C155" s="7">
+        <v>351.0</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="2"/>
+      <c r="H155" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I155" s="4"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
@@ -6607,14 +7687,20 @@
       <c r="X155" s="4"/>
     </row>
     <row r="156">
-      <c r="A156" s="4"/>
+      <c r="A156" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
+      <c r="C156" s="7">
+        <v>353.0</v>
+      </c>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="2"/>
+      <c r="H156" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I156" s="4"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
@@ -6633,14 +7719,20 @@
       <c r="X156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="4"/>
+      <c r="A157" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
+      <c r="C157" s="7">
+        <v>362.0</v>
+      </c>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="2"/>
+      <c r="H157" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I157" s="4"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
@@ -6659,14 +7751,20 @@
       <c r="X157" s="4"/>
     </row>
     <row r="158">
-      <c r="A158" s="4"/>
+      <c r="A158" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
+      <c r="C158" s="7">
+        <v>311.0</v>
+      </c>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="2"/>
+      <c r="H158" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I158" s="4"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
@@ -6685,14 +7783,20 @@
       <c r="X158" s="4"/>
     </row>
     <row r="159">
-      <c r="A159" s="4"/>
+      <c r="A159" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
+      <c r="C159" s="7">
+        <v>212.0</v>
+      </c>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="2"/>
+      <c r="H159" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I159" s="4"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
@@ -6711,14 +7815,20 @@
       <c r="X159" s="4"/>
     </row>
     <row r="160">
-      <c r="A160" s="4"/>
+      <c r="A160" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
+      <c r="C160" s="7">
+        <v>339.0</v>
+      </c>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="2"/>
+      <c r="H160" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I160" s="4"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
@@ -6737,14 +7847,20 @@
       <c r="X160" s="4"/>
     </row>
     <row r="161">
-      <c r="A161" s="4"/>
+      <c r="A161" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
+      <c r="C161" s="7">
+        <v>341.0</v>
+      </c>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="2"/>
+      <c r="H161" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I161" s="4"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
@@ -6763,14 +7879,20 @@
       <c r="X161" s="4"/>
     </row>
     <row r="162">
-      <c r="A162" s="4"/>
+      <c r="A162" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
+      <c r="C162" s="7">
+        <v>338.0</v>
+      </c>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="2"/>
+      <c r="H162" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I162" s="4"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
@@ -6789,14 +7911,20 @@
       <c r="X162" s="4"/>
     </row>
     <row r="163">
-      <c r="A163" s="4"/>
+      <c r="A163" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
+      <c r="C163" s="7">
+        <v>298.0</v>
+      </c>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="2"/>
+      <c r="H163" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I163" s="4"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
@@ -6815,14 +7943,20 @@
       <c r="X163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="4"/>
+      <c r="A164" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
+      <c r="C164" s="7">
+        <v>201.0</v>
+      </c>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
       <c r="G164" s="4"/>
-      <c r="H164" s="2"/>
+      <c r="H164" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I164" s="4"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
@@ -6841,14 +7975,20 @@
       <c r="X164" s="4"/>
     </row>
     <row r="165">
-      <c r="A165" s="4"/>
+      <c r="A165" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
+      <c r="C165" s="7">
+        <v>451.0</v>
+      </c>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="2"/>
+      <c r="H165" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I165" s="4"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
@@ -6867,14 +8007,20 @@
       <c r="X165" s="4"/>
     </row>
     <row r="166">
-      <c r="A166" s="4"/>
+      <c r="A166" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
+      <c r="C166" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="2"/>
+      <c r="H166" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I166" s="4"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
@@ -6893,14 +8039,20 @@
       <c r="X166" s="4"/>
     </row>
     <row r="167">
-      <c r="A167" s="4"/>
+      <c r="A167" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
+      <c r="C167" s="7">
+        <v>427.0</v>
+      </c>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
       <c r="G167" s="4"/>
-      <c r="H167" s="2"/>
+      <c r="H167" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I167" s="4"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
@@ -6919,14 +8071,20 @@
       <c r="X167" s="4"/>
     </row>
     <row r="168">
-      <c r="A168" s="4"/>
+      <c r="A168" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
+      <c r="C168" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
       <c r="G168" s="4"/>
-      <c r="H168" s="2"/>
+      <c r="H168" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I168" s="4"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
@@ -6945,14 +8103,20 @@
       <c r="X168" s="4"/>
     </row>
     <row r="169">
-      <c r="A169" s="4"/>
+      <c r="A169" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
+      <c r="C169" s="7">
+        <v>436.0</v>
+      </c>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
       <c r="G169" s="4"/>
-      <c r="H169" s="2"/>
+      <c r="H169" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I169" s="4"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
@@ -6971,14 +8135,20 @@
       <c r="X169" s="4"/>
     </row>
     <row r="170">
-      <c r="A170" s="4"/>
+      <c r="A170" s="7" t="s">
+        <v>247</v>
+      </c>
       <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
+      <c r="C170" s="7">
+        <v>142.0</v>
+      </c>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
       <c r="G170" s="4"/>
-      <c r="H170" s="2"/>
+      <c r="H170" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I170" s="4"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
@@ -6997,14 +8167,20 @@
       <c r="X170" s="4"/>
     </row>
     <row r="171">
-      <c r="A171" s="4"/>
+      <c r="A171" s="7" t="s">
+        <v>248</v>
+      </c>
       <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
+      <c r="C171" s="7">
+        <v>405.0</v>
+      </c>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
       <c r="G171" s="4"/>
-      <c r="H171" s="2"/>
+      <c r="H171" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I171" s="4"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
@@ -7023,14 +8199,20 @@
       <c r="X171" s="4"/>
     </row>
     <row r="172">
-      <c r="A172" s="4"/>
+      <c r="A172" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
+      <c r="C172" s="7">
+        <v>186.0</v>
+      </c>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
       <c r="G172" s="4"/>
-      <c r="H172" s="2"/>
+      <c r="H172" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I172" s="4"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
@@ -7049,14 +8231,20 @@
       <c r="X172" s="4"/>
     </row>
     <row r="173">
-      <c r="A173" s="4"/>
+      <c r="A173" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
+      <c r="C173" s="7">
+        <v>394.0</v>
+      </c>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
       <c r="G173" s="4"/>
-      <c r="H173" s="2"/>
+      <c r="H173" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I173" s="4"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
@@ -7075,14 +8263,20 @@
       <c r="X173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="4"/>
+      <c r="A174" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
+      <c r="C174" s="7">
+        <v>52.0</v>
+      </c>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
       <c r="G174" s="4"/>
-      <c r="H174" s="2"/>
+      <c r="H174" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I174" s="4"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
@@ -7101,14 +8295,20 @@
       <c r="X174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="4"/>
+      <c r="A175" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
+      <c r="C175" s="7">
+        <v>129.0</v>
+      </c>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
       <c r="G175" s="4"/>
-      <c r="H175" s="2"/>
+      <c r="H175" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I175" s="4"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
@@ -7127,14 +8327,20 @@
       <c r="X175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="4"/>
+      <c r="A176" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
+      <c r="C176" s="7">
+        <v>132.0</v>
+      </c>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
       <c r="G176" s="4"/>
-      <c r="H176" s="2"/>
+      <c r="H176" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I176" s="4"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
@@ -7153,14 +8359,20 @@
       <c r="X176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="4"/>
+      <c r="A177" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
+      <c r="C177" s="7">
+        <v>180.0</v>
+      </c>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
       <c r="G177" s="4"/>
-      <c r="H177" s="2"/>
+      <c r="H177" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I177" s="4"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
@@ -7179,14 +8391,20 @@
       <c r="X177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="4"/>
+      <c r="A178" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
+      <c r="C178" s="7">
+        <v>155.0</v>
+      </c>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
       <c r="G178" s="4"/>
-      <c r="H178" s="2"/>
+      <c r="H178" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I178" s="4"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
@@ -7205,14 +8423,20 @@
       <c r="X178" s="4"/>
     </row>
     <row r="179">
-      <c r="A179" s="4"/>
+      <c r="A179" s="7" t="s">
+        <v>256</v>
+      </c>
       <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
+      <c r="C179" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
       <c r="G179" s="4"/>
-      <c r="H179" s="2"/>
+      <c r="H179" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I179" s="4"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
@@ -7231,14 +8455,20 @@
       <c r="X179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="4"/>
+      <c r="A180" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
+      <c r="C180" s="7">
+        <v>123.0</v>
+      </c>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
       <c r="G180" s="4"/>
-      <c r="H180" s="2"/>
+      <c r="H180" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I180" s="4"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
@@ -7257,14 +8487,20 @@
       <c r="X180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="4"/>
+      <c r="A181" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
+      <c r="C181" s="7">
+        <v>137.0</v>
+      </c>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
       <c r="G181" s="4"/>
-      <c r="H181" s="2"/>
+      <c r="H181" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I181" s="4"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
@@ -7283,14 +8519,20 @@
       <c r="X181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="4"/>
+      <c r="A182" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
+      <c r="C182" s="7">
+        <v>186.0</v>
+      </c>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
       <c r="G182" s="4"/>
-      <c r="H182" s="2"/>
+      <c r="H182" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I182" s="4"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
@@ -7309,14 +8551,20 @@
       <c r="X182" s="4"/>
     </row>
     <row r="183">
-      <c r="A183" s="4"/>
+      <c r="A183" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
+      <c r="C183" s="7">
+        <v>128.0</v>
+      </c>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
       <c r="G183" s="4"/>
-      <c r="H183" s="2"/>
+      <c r="H183" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="I183" s="4"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
@@ -7335,14 +8583,20 @@
       <c r="X183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="4"/>
+      <c r="A184" s="7" t="s">
+        <v>261</v>
+      </c>
       <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
+      <c r="C184" s="7">
+        <v>386.83</v>
+      </c>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
       <c r="G184" s="4"/>
-      <c r="H184" s="2"/>
+      <c r="H184" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I184" s="4"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -7361,14 +8615,20 @@
       <c r="X184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="4"/>
+      <c r="A185" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
+      <c r="C185" s="7">
+        <v>316.0</v>
+      </c>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
       <c r="G185" s="4"/>
-      <c r="H185" s="2"/>
+      <c r="H185" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I185" s="4"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
@@ -7387,14 +8647,20 @@
       <c r="X185" s="4"/>
     </row>
     <row r="186">
-      <c r="A186" s="4"/>
+      <c r="A186" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
+      <c r="C186" s="7">
+        <v>506.98</v>
+      </c>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
       <c r="G186" s="4"/>
-      <c r="H186" s="2"/>
+      <c r="H186" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I186" s="4"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
@@ -7413,14 +8679,20 @@
       <c r="X186" s="4"/>
     </row>
     <row r="187">
-      <c r="A187" s="4"/>
+      <c r="A187" s="7" t="s">
+        <v>265</v>
+      </c>
       <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
+      <c r="C187" s="7">
+        <v>287.43</v>
+      </c>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
       <c r="G187" s="4"/>
-      <c r="H187" s="2"/>
+      <c r="H187" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I187" s="4"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
@@ -7439,14 +8711,20 @@
       <c r="X187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="4"/>
+      <c r="A188" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
+      <c r="C188" s="7">
+        <v>289.45</v>
+      </c>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
       <c r="G188" s="4"/>
-      <c r="H188" s="2"/>
+      <c r="H188" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I188" s="4"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
@@ -7465,14 +8743,20 @@
       <c r="X188" s="4"/>
     </row>
     <row r="189">
-      <c r="A189" s="4"/>
+      <c r="A189" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
+      <c r="C189" s="7">
+        <v>410.26</v>
+      </c>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
       <c r="G189" s="4"/>
-      <c r="H189" s="2"/>
+      <c r="H189" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I189" s="4"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
@@ -7491,14 +8775,20 @@
       <c r="X189" s="4"/>
     </row>
     <row r="190">
-      <c r="A190" s="4"/>
+      <c r="A190" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4"/>
+      <c r="C190" s="7">
+        <v>308.85</v>
+      </c>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
       <c r="G190" s="4"/>
-      <c r="H190" s="2"/>
+      <c r="H190" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I190" s="4"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
@@ -7517,14 +8807,20 @@
       <c r="X190" s="4"/>
     </row>
     <row r="191">
-      <c r="A191" s="4"/>
+      <c r="A191" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
+      <c r="C191" s="7">
+        <v>288.11</v>
+      </c>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
       <c r="G191" s="4"/>
-      <c r="H191" s="2"/>
+      <c r="H191" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I191" s="4"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
@@ -7543,14 +8839,20 @@
       <c r="X191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="4"/>
+      <c r="A192" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
+      <c r="C192" s="7">
+        <v>441.0</v>
+      </c>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
       <c r="G192" s="4"/>
-      <c r="H192" s="2"/>
+      <c r="H192" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I192" s="4"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
@@ -7569,14 +8871,20 @@
       <c r="X192" s="4"/>
     </row>
     <row r="193">
-      <c r="A193" s="4"/>
+      <c r="A193" s="7" t="s">
+        <v>270</v>
+      </c>
       <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
+      <c r="C193" s="7">
+        <v>421.0</v>
+      </c>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
       <c r="G193" s="4"/>
-      <c r="H193" s="2"/>
+      <c r="H193" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I193" s="4"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
@@ -7595,14 +8903,20 @@
       <c r="X193" s="4"/>
     </row>
     <row r="194">
-      <c r="A194" s="4"/>
+      <c r="A194" s="7" t="s">
+        <v>271</v>
+      </c>
       <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
+      <c r="C194" s="7">
+        <v>244.0</v>
+      </c>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
       <c r="G194" s="4"/>
-      <c r="H194" s="2"/>
+      <c r="H194" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I194" s="4"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
@@ -7621,14 +8935,20 @@
       <c r="X194" s="4"/>
     </row>
     <row r="195">
-      <c r="A195" s="4"/>
+      <c r="A195" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
+      <c r="C195" s="7">
+        <v>664.0</v>
+      </c>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
       <c r="G195" s="4"/>
-      <c r="H195" s="2"/>
+      <c r="H195" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I195" s="4"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
@@ -7647,14 +8967,20 @@
       <c r="X195" s="4"/>
     </row>
     <row r="196">
-      <c r="A196" s="4"/>
+      <c r="A196" s="7" t="s">
+        <v>273</v>
+      </c>
       <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
+      <c r="C196" s="7">
+        <v>439.0</v>
+      </c>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
       <c r="G196" s="4"/>
-      <c r="H196" s="2"/>
+      <c r="H196" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I196" s="4"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
@@ -7673,14 +8999,20 @@
       <c r="X196" s="4"/>
     </row>
     <row r="197">
-      <c r="A197" s="4"/>
+      <c r="A197" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
-      <c r="F197" s="4"/>
+      <c r="C197" s="7">
+        <v>319.0</v>
+      </c>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
       <c r="G197" s="4"/>
-      <c r="H197" s="2"/>
+      <c r="H197" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I197" s="4"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
@@ -7699,14 +9031,20 @@
       <c r="X197" s="4"/>
     </row>
     <row r="198">
-      <c r="A198" s="4"/>
+      <c r="A198" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
+      <c r="C198" s="7">
+        <v>337.81</v>
+      </c>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
       <c r="G198" s="4"/>
-      <c r="H198" s="2"/>
+      <c r="H198" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I198" s="4"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
@@ -7725,14 +9063,20 @@
       <c r="X198" s="4"/>
     </row>
     <row r="199">
-      <c r="A199" s="4"/>
+      <c r="A199" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
+      <c r="C199" s="7">
+        <v>266.0</v>
+      </c>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
       <c r="G199" s="4"/>
-      <c r="H199" s="2"/>
+      <c r="H199" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I199" s="4"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
@@ -7751,14 +9095,20 @@
       <c r="X199" s="4"/>
     </row>
     <row r="200">
-      <c r="A200" s="4"/>
+      <c r="A200" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
-      <c r="F200" s="4"/>
+      <c r="C200" s="7">
+        <v>444.0</v>
+      </c>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
       <c r="G200" s="4"/>
-      <c r="H200" s="2"/>
+      <c r="H200" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I200" s="4"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
@@ -7777,14 +9127,20 @@
       <c r="X200" s="4"/>
     </row>
     <row r="201">
-      <c r="A201" s="4"/>
+      <c r="A201" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
+      <c r="C201" s="7">
+        <v>544.94</v>
+      </c>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
       <c r="G201" s="4"/>
-      <c r="H201" s="2"/>
+      <c r="H201" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I201" s="4"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
@@ -7803,14 +9159,20 @@
       <c r="X201" s="4"/>
     </row>
     <row r="202">
-      <c r="A202" s="4"/>
+      <c r="A202" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
+      <c r="C202" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
       <c r="G202" s="4"/>
-      <c r="H202" s="2"/>
+      <c r="H202" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I202" s="4"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
@@ -7829,14 +9191,20 @@
       <c r="X202" s="4"/>
     </row>
     <row r="203">
-      <c r="A203" s="4"/>
+      <c r="A203" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
+      <c r="C203" s="7">
+        <v>300.99</v>
+      </c>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
       <c r="G203" s="4"/>
-      <c r="H203" s="2"/>
+      <c r="H203" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I203" s="4"/>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
@@ -7855,14 +9223,20 @@
       <c r="X203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="4"/>
+      <c r="A204" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
+      <c r="C204" s="7">
+        <v>377.77</v>
+      </c>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
       <c r="G204" s="4"/>
-      <c r="H204" s="2"/>
+      <c r="H204" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I204" s="4"/>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
@@ -7881,14 +9255,20 @@
       <c r="X204" s="4"/>
     </row>
     <row r="205">
-      <c r="A205" s="4"/>
+      <c r="A205" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
+      <c r="C205" s="7">
+        <v>234.78</v>
+      </c>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="7"/>
       <c r="G205" s="4"/>
-      <c r="H205" s="2"/>
+      <c r="H205" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I205" s="4"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
@@ -7907,14 +9287,20 @@
       <c r="X205" s="4"/>
     </row>
     <row r="206">
-      <c r="A206" s="4"/>
+      <c r="A206" s="7" t="s">
+        <v>283</v>
+      </c>
       <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
+      <c r="C206" s="7">
+        <v>202.0</v>
+      </c>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="7"/>
       <c r="G206" s="4"/>
-      <c r="H206" s="2"/>
+      <c r="H206" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I206" s="4"/>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
@@ -7933,14 +9319,20 @@
       <c r="X206" s="4"/>
     </row>
     <row r="207">
-      <c r="A207" s="4"/>
+      <c r="A207" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
+      <c r="C207" s="7">
+        <v>374.78</v>
+      </c>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
       <c r="G207" s="4"/>
-      <c r="H207" s="2"/>
+      <c r="H207" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I207" s="4"/>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
@@ -7959,14 +9351,20 @@
       <c r="X207" s="4"/>
     </row>
     <row r="208">
-      <c r="A208" s="4"/>
+      <c r="A208" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
+      <c r="C208" s="7">
+        <v>551.99</v>
+      </c>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
       <c r="G208" s="4"/>
-      <c r="H208" s="2"/>
+      <c r="H208" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I208" s="4"/>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
@@ -7985,14 +9383,20 @@
       <c r="X208" s="4"/>
     </row>
     <row r="209">
-      <c r="A209" s="4"/>
+      <c r="A209" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="4"/>
+      <c r="C209" s="7">
+        <v>466.13</v>
+      </c>
+      <c r="D209" s="7"/>
+      <c r="E209" s="7"/>
+      <c r="F209" s="7"/>
       <c r="G209" s="4"/>
-      <c r="H209" s="2"/>
+      <c r="H209" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I209" s="4"/>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
@@ -8011,14 +9415,20 @@
       <c r="X209" s="4"/>
     </row>
     <row r="210">
-      <c r="A210" s="4"/>
+      <c r="A210" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="4"/>
+      <c r="C210" s="7">
+        <v>424.36</v>
+      </c>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
       <c r="G210" s="4"/>
-      <c r="H210" s="2"/>
+      <c r="H210" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I210" s="4"/>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
@@ -8037,14 +9447,20 @@
       <c r="X210" s="4"/>
     </row>
     <row r="211">
-      <c r="A211" s="4"/>
+      <c r="A211" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
-      <c r="E211" s="4"/>
-      <c r="F211" s="4"/>
+      <c r="C211" s="7">
+        <v>434.71</v>
+      </c>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
       <c r="G211" s="4"/>
-      <c r="H211" s="2"/>
+      <c r="H211" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I211" s="4"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
@@ -8063,14 +9479,20 @@
       <c r="X211" s="4"/>
     </row>
     <row r="212">
-      <c r="A212" s="4"/>
+      <c r="A212" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
-      <c r="F212" s="4"/>
+      <c r="C212" s="7">
+        <v>602.0</v>
+      </c>
+      <c r="D212" s="7"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
       <c r="G212" s="4"/>
-      <c r="H212" s="2"/>
+      <c r="H212" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I212" s="4"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
@@ -8089,14 +9511,20 @@
       <c r="X212" s="4"/>
     </row>
     <row r="213">
-      <c r="A213" s="4"/>
+      <c r="A213" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4"/>
+      <c r="C213" s="7">
+        <v>475.0</v>
+      </c>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
       <c r="G213" s="4"/>
-      <c r="H213" s="2"/>
+      <c r="H213" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I213" s="4"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
@@ -8115,14 +9543,20 @@
       <c r="X213" s="4"/>
     </row>
     <row r="214">
-      <c r="A214" s="4"/>
+      <c r="A214" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
-      <c r="F214" s="4"/>
+      <c r="C214" s="7">
+        <v>541.29</v>
+      </c>
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
+      <c r="F214" s="7"/>
       <c r="G214" s="4"/>
-      <c r="H214" s="2"/>
+      <c r="H214" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I214" s="4"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
@@ -8141,14 +9575,20 @@
       <c r="X214" s="4"/>
     </row>
     <row r="215">
-      <c r="A215" s="4"/>
+      <c r="A215" s="7" t="s">
+        <v>292</v>
+      </c>
       <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="4"/>
-      <c r="F215" s="4"/>
+      <c r="C215" s="7">
+        <v>779.94</v>
+      </c>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="7"/>
       <c r="G215" s="4"/>
-      <c r="H215" s="2"/>
+      <c r="H215" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I215" s="4"/>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
@@ -8167,14 +9607,20 @@
       <c r="X215" s="4"/>
     </row>
     <row r="216">
-      <c r="A216" s="4"/>
+      <c r="A216" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="4"/>
+      <c r="C216" s="7">
+        <v>387.0</v>
+      </c>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
       <c r="G216" s="4"/>
-      <c r="H216" s="2"/>
+      <c r="H216" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I216" s="4"/>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
@@ -8193,14 +9639,20 @@
       <c r="X216" s="4"/>
     </row>
     <row r="217">
-      <c r="A217" s="4"/>
+      <c r="A217" s="7" t="s">
+        <v>294</v>
+      </c>
       <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
+      <c r="C217" s="7">
+        <v>520.0</v>
+      </c>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
       <c r="G217" s="4"/>
-      <c r="H217" s="2"/>
+      <c r="H217" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I217" s="4"/>
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
@@ -8219,14 +9671,20 @@
       <c r="X217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="4"/>
+      <c r="A218" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="4"/>
+      <c r="C218" s="7">
+        <v>386.0</v>
+      </c>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
       <c r="G218" s="4"/>
-      <c r="H218" s="2"/>
+      <c r="H218" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I218" s="4"/>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
@@ -8245,14 +9703,20 @@
       <c r="X218" s="4"/>
     </row>
     <row r="219">
-      <c r="A219" s="4"/>
+      <c r="A219" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="4"/>
+      <c r="C219" s="7">
+        <v>516.0</v>
+      </c>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
       <c r="G219" s="4"/>
-      <c r="H219" s="2"/>
+      <c r="H219" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I219" s="4"/>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
@@ -8271,14 +9735,20 @@
       <c r="X219" s="4"/>
     </row>
     <row r="220">
-      <c r="A220" s="4"/>
+      <c r="A220" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
+      <c r="C220" s="7">
+        <v>506.85</v>
+      </c>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
       <c r="G220" s="4"/>
-      <c r="H220" s="2"/>
+      <c r="H220" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I220" s="4"/>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
@@ -8297,14 +9767,20 @@
       <c r="X220" s="4"/>
     </row>
     <row r="221">
-      <c r="A221" s="4"/>
+      <c r="A221" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="4"/>
+      <c r="C221" s="7">
+        <v>519.74</v>
+      </c>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
       <c r="G221" s="4"/>
-      <c r="H221" s="2"/>
+      <c r="H221" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I221" s="4"/>
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
@@ -8323,14 +9799,20 @@
       <c r="X221" s="4"/>
     </row>
     <row r="222">
-      <c r="A222" s="4"/>
+      <c r="A222" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="4"/>
+      <c r="C222" s="7">
+        <v>337.89</v>
+      </c>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
       <c r="G222" s="4"/>
-      <c r="H222" s="2"/>
+      <c r="H222" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I222" s="4"/>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
@@ -8349,14 +9831,20 @@
       <c r="X222" s="4"/>
     </row>
     <row r="223">
-      <c r="A223" s="4"/>
+      <c r="A223" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
-      <c r="F223" s="4"/>
+      <c r="C223" s="7">
+        <v>544.0</v>
+      </c>
+      <c r="D223" s="7"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
       <c r="G223" s="4"/>
-      <c r="H223" s="2"/>
+      <c r="H223" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I223" s="4"/>
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
@@ -8375,14 +9863,20 @@
       <c r="X223" s="4"/>
     </row>
     <row r="224">
-      <c r="A224" s="4"/>
+      <c r="A224" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="4"/>
+      <c r="C224" s="7">
+        <v>456.0</v>
+      </c>
+      <c r="D224" s="7"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="7"/>
       <c r="G224" s="4"/>
-      <c r="H224" s="2"/>
+      <c r="H224" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I224" s="4"/>
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
@@ -8401,14 +9895,20 @@
       <c r="X224" s="4"/>
     </row>
     <row r="225">
-      <c r="A225" s="4"/>
+      <c r="A225" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="4"/>
+      <c r="C225" s="7">
+        <v>543.21</v>
+      </c>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
       <c r="G225" s="4"/>
-      <c r="H225" s="2"/>
+      <c r="H225" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I225" s="4"/>
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
@@ -8427,14 +9927,20 @@
       <c r="X225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="4"/>
+      <c r="A226" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="4"/>
-      <c r="F226" s="4"/>
+      <c r="C226" s="7">
+        <v>713.81</v>
+      </c>
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
       <c r="G226" s="4"/>
-      <c r="H226" s="2"/>
+      <c r="H226" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I226" s="4"/>
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
@@ -8453,14 +9959,20 @@
       <c r="X226" s="4"/>
     </row>
     <row r="227">
-      <c r="A227" s="4"/>
+      <c r="A227" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="4"/>
-      <c r="F227" s="4"/>
+      <c r="C227" s="7">
+        <v>584.0</v>
+      </c>
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
       <c r="G227" s="4"/>
-      <c r="H227" s="2"/>
+      <c r="H227" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I227" s="4"/>
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
@@ -8479,14 +9991,20 @@
       <c r="X227" s="4"/>
     </row>
     <row r="228">
-      <c r="A228" s="4"/>
+      <c r="A228" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="4"/>
+      <c r="C228" s="7">
+        <v>726.75</v>
+      </c>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
       <c r="G228" s="4"/>
-      <c r="H228" s="2"/>
+      <c r="H228" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I228" s="4"/>
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
@@ -8505,14 +10023,20 @@
       <c r="X228" s="4"/>
     </row>
     <row r="229">
-      <c r="A229" s="4"/>
+      <c r="A229" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="4"/>
+      <c r="C229" s="7">
+        <v>360.0</v>
+      </c>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
       <c r="G229" s="4"/>
-      <c r="H229" s="2"/>
+      <c r="H229" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I229" s="4"/>
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
@@ -8531,14 +10055,20 @@
       <c r="X229" s="4"/>
     </row>
     <row r="230">
-      <c r="A230" s="4"/>
+      <c r="A230" s="7" t="s">
+        <v>306</v>
+      </c>
       <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="4"/>
+      <c r="C230" s="7">
+        <v>261.0</v>
+      </c>
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
       <c r="G230" s="4"/>
-      <c r="H230" s="2"/>
+      <c r="H230" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I230" s="4"/>
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
@@ -8557,14 +10087,20 @@
       <c r="X230" s="4"/>
     </row>
     <row r="231">
-      <c r="A231" s="4"/>
+      <c r="A231" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="4"/>
+      <c r="C231" s="7">
+        <v>547.42</v>
+      </c>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="7"/>
       <c r="G231" s="4"/>
-      <c r="H231" s="2"/>
+      <c r="H231" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I231" s="4"/>
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
@@ -8583,14 +10119,20 @@
       <c r="X231" s="4"/>
     </row>
     <row r="232">
-      <c r="A232" s="4"/>
+      <c r="A232" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="4"/>
-      <c r="F232" s="4"/>
+      <c r="C232" s="7">
+        <v>200.88</v>
+      </c>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
       <c r="G232" s="4"/>
-      <c r="H232" s="2"/>
+      <c r="H232" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I232" s="4"/>
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
@@ -8609,14 +10151,20 @@
       <c r="X232" s="4"/>
     </row>
     <row r="233">
-      <c r="A233" s="4"/>
+      <c r="A233" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="4"/>
-      <c r="F233" s="4"/>
+      <c r="C233" s="7">
+        <v>543.8</v>
+      </c>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
       <c r="G233" s="4"/>
-      <c r="H233" s="2"/>
+      <c r="H233" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I233" s="4"/>
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
@@ -8635,14 +10183,20 @@
       <c r="X233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="4"/>
+      <c r="A234" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="B234" s="4"/>
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="4"/>
-      <c r="F234" s="4"/>
+      <c r="C234" s="7">
+        <v>710.38</v>
+      </c>
+      <c r="D234" s="7"/>
+      <c r="E234" s="7"/>
+      <c r="F234" s="7"/>
       <c r="G234" s="4"/>
-      <c r="H234" s="2"/>
+      <c r="H234" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I234" s="4"/>
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
@@ -8661,14 +10215,20 @@
       <c r="X234" s="4"/>
     </row>
     <row r="235">
-      <c r="A235" s="4"/>
+      <c r="A235" s="7" t="s">
+        <v>311</v>
+      </c>
       <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="4"/>
-      <c r="F235" s="4"/>
+      <c r="C235" s="7">
+        <v>501.2</v>
+      </c>
+      <c r="D235" s="7"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="7"/>
       <c r="G235" s="4"/>
-      <c r="H235" s="2"/>
+      <c r="H235" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I235" s="4"/>
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
@@ -8687,14 +10247,20 @@
       <c r="X235" s="4"/>
     </row>
     <row r="236">
-      <c r="A236" s="4"/>
+      <c r="A236" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="B236" s="4"/>
-      <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="4"/>
-      <c r="F236" s="4"/>
+      <c r="C236" s="7">
+        <v>3185.14</v>
+      </c>
+      <c r="D236" s="7"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="7"/>
       <c r="G236" s="4"/>
-      <c r="H236" s="2"/>
+      <c r="H236" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I236" s="4"/>
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
@@ -8713,14 +10279,20 @@
       <c r="X236" s="4"/>
     </row>
     <row r="237">
-      <c r="A237" s="4"/>
+      <c r="A237" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="4"/>
+      <c r="C237" s="7">
+        <v>1360.57</v>
+      </c>
+      <c r="D237" s="7"/>
+      <c r="E237" s="7"/>
+      <c r="F237" s="7"/>
       <c r="G237" s="4"/>
-      <c r="H237" s="2"/>
+      <c r="H237" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I237" s="4"/>
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
@@ -8739,14 +10311,20 @@
       <c r="X237" s="4"/>
     </row>
     <row r="238">
-      <c r="A238" s="4"/>
+      <c r="A238" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="B238" s="4"/>
-      <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="4"/>
-      <c r="F238" s="4"/>
+      <c r="C238" s="7">
+        <v>1804.57</v>
+      </c>
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
       <c r="G238" s="4"/>
-      <c r="H238" s="2"/>
+      <c r="H238" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I238" s="4"/>
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
@@ -8765,14 +10343,20 @@
       <c r="X238" s="4"/>
     </row>
     <row r="239">
-      <c r="A239" s="4"/>
+      <c r="A239" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="4"/>
-      <c r="F239" s="4"/>
+      <c r="C239" s="7">
+        <v>3629.14</v>
+      </c>
+      <c r="D239" s="7"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
       <c r="G239" s="4"/>
-      <c r="H239" s="2"/>
+      <c r="H239" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I239" s="4"/>
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
@@ -8791,14 +10375,20 @@
       <c r="X239" s="4"/>
     </row>
     <row r="240">
-      <c r="A240" s="4"/>
+      <c r="A240" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
-      <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
+      <c r="C240" s="7">
+        <v>1969.78</v>
+      </c>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
       <c r="G240" s="4"/>
-      <c r="H240" s="2"/>
+      <c r="H240" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I240" s="4"/>
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
@@ -8817,14 +10407,20 @@
       <c r="X240" s="4"/>
     </row>
     <row r="241">
-      <c r="A241" s="4"/>
+      <c r="A241" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="4"/>
-      <c r="F241" s="4"/>
+      <c r="C241" s="7">
+        <v>354.4</v>
+      </c>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
       <c r="G241" s="4"/>
-      <c r="H241" s="2"/>
+      <c r="H241" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I241" s="4"/>
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
@@ -8843,14 +10439,20 @@
       <c r="X241" s="4"/>
     </row>
     <row r="242">
-      <c r="A242" s="4"/>
+      <c r="A242" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
-      <c r="E242" s="4"/>
-      <c r="F242" s="4"/>
+      <c r="C242" s="7">
+        <v>452.4</v>
+      </c>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
       <c r="G242" s="4"/>
-      <c r="H242" s="2"/>
+      <c r="H242" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I242" s="4"/>
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
@@ -8869,14 +10471,20 @@
       <c r="X242" s="4"/>
     </row>
     <row r="243">
-      <c r="A243" s="4"/>
+      <c r="A243" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
-      <c r="E243" s="4"/>
-      <c r="F243" s="4"/>
+      <c r="C243" s="7">
+        <v>408.88</v>
+      </c>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
       <c r="G243" s="4"/>
-      <c r="H243" s="2"/>
+      <c r="H243" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I243" s="4"/>
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
@@ -8895,14 +10503,20 @@
       <c r="X243" s="4"/>
     </row>
     <row r="244">
-      <c r="A244" s="4"/>
+      <c r="A244" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="4"/>
-      <c r="F244" s="4"/>
+      <c r="C244" s="7">
+        <v>6.26</v>
+      </c>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="7"/>
       <c r="G244" s="4"/>
-      <c r="H244" s="2"/>
+      <c r="H244" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I244" s="4"/>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
@@ -8921,14 +10535,20 @@
       <c r="X244" s="4"/>
     </row>
     <row r="245">
-      <c r="A245" s="4"/>
+      <c r="A245" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="4"/>
-      <c r="F245" s="4"/>
+      <c r="C245" s="7">
+        <v>15.01</v>
+      </c>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
       <c r="G245" s="4"/>
-      <c r="H245" s="2"/>
+      <c r="H245" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I245" s="4"/>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
@@ -8947,14 +10567,20 @@
       <c r="X245" s="4"/>
     </row>
     <row r="246">
-      <c r="A246" s="4"/>
+      <c r="A246" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="4"/>
-      <c r="F246" s="4"/>
+      <c r="C246" s="7">
+        <v>20.16</v>
+      </c>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
       <c r="G246" s="4"/>
-      <c r="H246" s="2"/>
+      <c r="H246" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I246" s="4"/>
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
@@ -8973,14 +10599,20 @@
       <c r="X246" s="4"/>
     </row>
     <row r="247">
-      <c r="A247" s="4"/>
+      <c r="A247" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="4"/>
-      <c r="F247" s="4"/>
+      <c r="C247" s="7">
+        <v>123.48</v>
+      </c>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="7"/>
       <c r="G247" s="4"/>
-      <c r="H247" s="2"/>
+      <c r="H247" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I247" s="4"/>
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
@@ -8999,14 +10631,20 @@
       <c r="X247" s="4"/>
     </row>
     <row r="248">
-      <c r="A248" s="4"/>
+      <c r="A248" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="B248" s="4"/>
-      <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
-      <c r="E248" s="4"/>
-      <c r="F248" s="4"/>
+      <c r="C248" s="7">
+        <v>117.45</v>
+      </c>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
       <c r="G248" s="4"/>
-      <c r="H248" s="2"/>
+      <c r="H248" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I248" s="4"/>
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
@@ -9025,14 +10663,20 @@
       <c r="X248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="4"/>
+      <c r="A249" s="7" t="s">
+        <v>325</v>
+      </c>
       <c r="B249" s="4"/>
-      <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
-      <c r="E249" s="4"/>
-      <c r="F249" s="4"/>
+      <c r="C249" s="7">
+        <v>148.25</v>
+      </c>
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
       <c r="G249" s="4"/>
-      <c r="H249" s="2"/>
+      <c r="H249" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I249" s="4"/>
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
@@ -9051,14 +10695,20 @@
       <c r="X249" s="4"/>
     </row>
     <row r="250">
-      <c r="A250" s="4"/>
+      <c r="A250" s="7" t="s">
+        <v>326</v>
+      </c>
       <c r="B250" s="4"/>
-      <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
-      <c r="E250" s="4"/>
-      <c r="F250" s="4"/>
+      <c r="C250" s="7">
+        <v>110.22</v>
+      </c>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
       <c r="G250" s="4"/>
-      <c r="H250" s="2"/>
+      <c r="H250" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I250" s="4"/>
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
@@ -9077,14 +10727,20 @@
       <c r="X250" s="4"/>
     </row>
     <row r="251">
-      <c r="A251" s="4"/>
+      <c r="A251" s="7" t="s">
+        <v>327</v>
+      </c>
       <c r="B251" s="4"/>
-      <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
-      <c r="E251" s="4"/>
-      <c r="F251" s="4"/>
+      <c r="C251" s="7">
+        <v>138.39</v>
+      </c>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
       <c r="G251" s="4"/>
-      <c r="H251" s="2"/>
+      <c r="H251" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I251" s="4"/>
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
@@ -9103,14 +10759,20 @@
       <c r="X251" s="4"/>
     </row>
     <row r="252">
-      <c r="A252" s="4"/>
+      <c r="A252" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4"/>
-      <c r="F252" s="4"/>
+      <c r="C252" s="7">
+        <v>176.99</v>
+      </c>
+      <c r="D252" s="7"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="7"/>
       <c r="G252" s="4"/>
-      <c r="H252" s="2"/>
+      <c r="H252" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I252" s="4"/>
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
@@ -9129,14 +10791,20 @@
       <c r="X252" s="4"/>
     </row>
     <row r="253">
-      <c r="A253" s="4"/>
+      <c r="A253" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="4"/>
-      <c r="F253" s="4"/>
+      <c r="C253" s="7">
+        <v>212.46</v>
+      </c>
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
       <c r="G253" s="4"/>
-      <c r="H253" s="2"/>
+      <c r="H253" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I253" s="4"/>
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
@@ -9155,14 +10823,20 @@
       <c r="X253" s="4"/>
     </row>
     <row r="254">
-      <c r="A254" s="4"/>
+      <c r="A254" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="4"/>
-      <c r="F254" s="4"/>
+      <c r="C254" s="7">
+        <v>156.53</v>
+      </c>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
       <c r="G254" s="4"/>
-      <c r="H254" s="2"/>
+      <c r="H254" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I254" s="4"/>
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
@@ -9181,14 +10855,20 @@
       <c r="X254" s="4"/>
     </row>
     <row r="255">
-      <c r="A255" s="4"/>
+      <c r="A255" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
-      <c r="F255" s="4"/>
+      <c r="C255" s="7">
+        <v>238.28</v>
+      </c>
+      <c r="D255" s="7"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="7"/>
       <c r="G255" s="4"/>
-      <c r="H255" s="2"/>
+      <c r="H255" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I255" s="4"/>
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
@@ -9207,14 +10887,20 @@
       <c r="X255" s="4"/>
     </row>
     <row r="256">
-      <c r="A256" s="4"/>
+      <c r="A256" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="4"/>
+      <c r="C256" s="7">
+        <v>260.0</v>
+      </c>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
       <c r="G256" s="4"/>
-      <c r="H256" s="2"/>
+      <c r="H256" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I256" s="4"/>
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
@@ -9233,14 +10919,20 @@
       <c r="X256" s="4"/>
     </row>
     <row r="257">
-      <c r="A257" s="4"/>
+      <c r="A257" s="7" t="s">
+        <v>333</v>
+      </c>
       <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
-      <c r="F257" s="4"/>
+      <c r="C257" s="7">
+        <v>278.0</v>
+      </c>
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
       <c r="G257" s="4"/>
-      <c r="H257" s="2"/>
+      <c r="H257" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I257" s="4"/>
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
@@ -9259,14 +10951,20 @@
       <c r="X257" s="4"/>
     </row>
     <row r="258">
-      <c r="A258" s="4"/>
+      <c r="A258" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="B258" s="4"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="4"/>
-      <c r="F258" s="4"/>
+      <c r="C258" s="7">
+        <v>350.0</v>
+      </c>
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
       <c r="G258" s="4"/>
-      <c r="H258" s="2"/>
+      <c r="H258" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I258" s="4"/>
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
@@ -9285,14 +10983,20 @@
       <c r="X258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="4"/>
+      <c r="A259" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
-      <c r="E259" s="4"/>
-      <c r="F259" s="4"/>
+      <c r="C259" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D259" s="7"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
       <c r="G259" s="4"/>
-      <c r="H259" s="2"/>
+      <c r="H259" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I259" s="4"/>
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
@@ -9311,14 +11015,20 @@
       <c r="X259" s="4"/>
     </row>
     <row r="260">
-      <c r="A260" s="4"/>
+      <c r="A260" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
-      <c r="E260" s="4"/>
-      <c r="F260" s="4"/>
+      <c r="C260" s="7">
+        <v>74.83</v>
+      </c>
+      <c r="D260" s="7"/>
+      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
       <c r="G260" s="4"/>
-      <c r="H260" s="2"/>
+      <c r="H260" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I260" s="4"/>
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
@@ -9337,14 +11047,20 @@
       <c r="X260" s="4"/>
     </row>
     <row r="261">
-      <c r="A261" s="4"/>
+      <c r="A261" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
-      <c r="E261" s="4"/>
-      <c r="F261" s="4"/>
+      <c r="C261" s="7">
+        <v>212.75</v>
+      </c>
+      <c r="D261" s="7"/>
+      <c r="E261" s="7"/>
+      <c r="F261" s="7"/>
       <c r="G261" s="4"/>
-      <c r="H261" s="2"/>
+      <c r="H261" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I261" s="4"/>
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
@@ -9363,14 +11079,20 @@
       <c r="X261" s="4"/>
     </row>
     <row r="262">
-      <c r="A262" s="4"/>
+      <c r="A262" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4"/>
-      <c r="F262" s="4"/>
+      <c r="C262" s="7">
+        <v>118.72</v>
+      </c>
+      <c r="D262" s="7"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
       <c r="G262" s="4"/>
-      <c r="H262" s="2"/>
+      <c r="H262" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I262" s="4"/>
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
@@ -9389,14 +11111,20 @@
       <c r="X262" s="4"/>
     </row>
     <row r="263">
-      <c r="A263" s="4"/>
+      <c r="A263" s="7" t="s">
+        <v>339</v>
+      </c>
       <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
-      <c r="E263" s="4"/>
-      <c r="F263" s="4"/>
+      <c r="C263" s="7">
+        <v>145.42</v>
+      </c>
+      <c r="D263" s="7"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
       <c r="G263" s="4"/>
-      <c r="H263" s="2"/>
+      <c r="H263" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I263" s="4"/>
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
@@ -9415,14 +11143,20 @@
       <c r="X263" s="4"/>
     </row>
     <row r="264">
-      <c r="A264" s="4"/>
+      <c r="A264" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="B264" s="4"/>
-      <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
-      <c r="E264" s="4"/>
-      <c r="F264" s="4"/>
+      <c r="C264" s="7">
+        <v>157.94</v>
+      </c>
+      <c r="D264" s="7"/>
+      <c r="E264" s="7"/>
+      <c r="F264" s="7"/>
       <c r="G264" s="4"/>
-      <c r="H264" s="2"/>
+      <c r="H264" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I264" s="4"/>
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
@@ -9441,14 +11175,20 @@
       <c r="X264" s="4"/>
     </row>
     <row r="265">
-      <c r="A265" s="4"/>
+      <c r="A265" s="7" t="s">
+        <v>341</v>
+      </c>
       <c r="B265" s="4"/>
-      <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
-      <c r="E265" s="4"/>
-      <c r="F265" s="4"/>
+      <c r="C265" s="7">
+        <v>210.3</v>
+      </c>
+      <c r="D265" s="7"/>
+      <c r="E265" s="7"/>
+      <c r="F265" s="7"/>
       <c r="G265" s="4"/>
-      <c r="H265" s="2"/>
+      <c r="H265" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I265" s="4"/>
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
@@ -9467,14 +11207,20 @@
       <c r="X265" s="4"/>
     </row>
     <row r="266">
-      <c r="A266" s="4"/>
+      <c r="A266" s="7" t="s">
+        <v>342</v>
+      </c>
       <c r="B266" s="4"/>
-      <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="4"/>
+      <c r="C266" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7"/>
+      <c r="F266" s="7"/>
       <c r="G266" s="4"/>
-      <c r="H266" s="2"/>
+      <c r="H266" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I266" s="4"/>
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
@@ -9493,14 +11239,20 @@
       <c r="X266" s="4"/>
     </row>
     <row r="267">
-      <c r="A267" s="4"/>
+      <c r="A267" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4"/>
+      <c r="C267" s="7">
+        <v>128.24</v>
+      </c>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
       <c r="G267" s="4"/>
-      <c r="H267" s="2"/>
+      <c r="H267" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I267" s="4"/>
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
@@ -9519,14 +11271,20 @@
       <c r="X267" s="4"/>
     </row>
     <row r="268">
-      <c r="A268" s="4"/>
+      <c r="A268" s="7" t="s">
+        <v>344</v>
+      </c>
       <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="4"/>
+      <c r="C268" s="7">
+        <v>170.8</v>
+      </c>
+      <c r="D268" s="7"/>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
       <c r="G268" s="4"/>
-      <c r="H268" s="2"/>
+      <c r="H268" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I268" s="4"/>
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
@@ -9545,14 +11303,20 @@
       <c r="X268" s="4"/>
     </row>
     <row r="269">
-      <c r="A269" s="4"/>
+      <c r="A269" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="B269" s="4"/>
-      <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
-      <c r="F269" s="4"/>
+      <c r="C269" s="7">
+        <v>122.99</v>
+      </c>
+      <c r="D269" s="7"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
       <c r="G269" s="4"/>
-      <c r="H269" s="2"/>
+      <c r="H269" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I269" s="4"/>
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
@@ -9571,14 +11335,20 @@
       <c r="X269" s="4"/>
     </row>
     <row r="270">
-      <c r="A270" s="4"/>
+      <c r="A270" s="7" t="s">
+        <v>346</v>
+      </c>
       <c r="B270" s="4"/>
-      <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
-      <c r="E270" s="4"/>
-      <c r="F270" s="4"/>
+      <c r="C270" s="7">
+        <v>163.88</v>
+      </c>
+      <c r="D270" s="7"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
       <c r="G270" s="4"/>
-      <c r="H270" s="2"/>
+      <c r="H270" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I270" s="4"/>
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
@@ -9597,14 +11367,20 @@
       <c r="X270" s="4"/>
     </row>
     <row r="271">
-      <c r="A271" s="4"/>
+      <c r="A271" s="7" t="s">
+        <v>347</v>
+      </c>
       <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="4"/>
+      <c r="C271" s="7">
+        <v>429.0</v>
+      </c>
+      <c r="D271" s="7"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
       <c r="G271" s="4"/>
-      <c r="H271" s="2"/>
+      <c r="H271" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I271" s="4"/>
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
@@ -9623,14 +11399,20 @@
       <c r="X271" s="4"/>
     </row>
     <row r="272">
-      <c r="A272" s="4"/>
+      <c r="A272" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="B272" s="4"/>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
+      <c r="C272" s="7">
+        <v>276.0</v>
+      </c>
+      <c r="D272" s="7"/>
+      <c r="E272" s="7"/>
+      <c r="F272" s="7"/>
       <c r="G272" s="4"/>
-      <c r="H272" s="2"/>
+      <c r="H272" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I272" s="4"/>
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
@@ -9649,14 +11431,20 @@
       <c r="X272" s="4"/>
     </row>
     <row r="273">
-      <c r="A273" s="4"/>
+      <c r="A273" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="4"/>
+      <c r="C273" s="7">
+        <v>325.0</v>
+      </c>
+      <c r="D273" s="7"/>
+      <c r="E273" s="7"/>
+      <c r="F273" s="7"/>
       <c r="G273" s="4"/>
-      <c r="H273" s="2"/>
+      <c r="H273" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I273" s="4"/>
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
@@ -9675,14 +11463,20 @@
       <c r="X273" s="4"/>
     </row>
     <row r="274">
-      <c r="A274" s="4"/>
+      <c r="A274" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="4"/>
+      <c r="C274" s="7">
+        <v>234.78</v>
+      </c>
+      <c r="D274" s="7"/>
+      <c r="E274" s="7"/>
+      <c r="F274" s="7"/>
       <c r="G274" s="4"/>
-      <c r="H274" s="2"/>
+      <c r="H274" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I274" s="4"/>
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
@@ -9701,14 +11495,20 @@
       <c r="X274" s="4"/>
     </row>
     <row r="275">
-      <c r="A275" s="4"/>
+      <c r="A275" s="7" t="s">
+        <v>351</v>
+      </c>
       <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="4"/>
+      <c r="C275" s="7">
+        <v>337.12</v>
+      </c>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
       <c r="G275" s="4"/>
-      <c r="H275" s="2"/>
+      <c r="H275" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I275" s="4"/>
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
@@ -9727,14 +11527,20 @@
       <c r="X275" s="4"/>
     </row>
     <row r="276">
-      <c r="A276" s="4"/>
+      <c r="A276" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
-      <c r="E276" s="4"/>
-      <c r="F276" s="4"/>
+      <c r="C276" s="7">
+        <v>472.57</v>
+      </c>
+      <c r="D276" s="7"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
       <c r="G276" s="4"/>
-      <c r="H276" s="2"/>
+      <c r="H276" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I276" s="4"/>
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
@@ -9753,14 +11559,20 @@
       <c r="X276" s="4"/>
     </row>
     <row r="277">
-      <c r="A277" s="4"/>
+      <c r="A277" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="B277" s="4"/>
-      <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
-      <c r="E277" s="4"/>
-      <c r="F277" s="4"/>
+      <c r="C277" s="7">
+        <v>183.86</v>
+      </c>
+      <c r="D277" s="7"/>
+      <c r="E277" s="7"/>
+      <c r="F277" s="7"/>
       <c r="G277" s="4"/>
-      <c r="H277" s="2"/>
+      <c r="H277" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I277" s="4"/>
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
@@ -9779,14 +11591,20 @@
       <c r="X277" s="4"/>
     </row>
     <row r="278">
-      <c r="A278" s="4"/>
+      <c r="A278" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
-      <c r="F278" s="4"/>
+      <c r="C278" s="7">
+        <v>184.0</v>
+      </c>
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="7"/>
       <c r="G278" s="4"/>
-      <c r="H278" s="2"/>
+      <c r="H278" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I278" s="4"/>
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
@@ -9805,14 +11623,20 @@
       <c r="X278" s="4"/>
     </row>
     <row r="279">
-      <c r="A279" s="4"/>
+      <c r="A279" s="7" t="s">
+        <v>354</v>
+      </c>
       <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
-      <c r="D279" s="4"/>
-      <c r="E279" s="4"/>
-      <c r="F279" s="4"/>
+      <c r="C279" s="7">
+        <v>323.0</v>
+      </c>
+      <c r="D279" s="7"/>
+      <c r="E279" s="7"/>
+      <c r="F279" s="7"/>
       <c r="G279" s="4"/>
-      <c r="H279" s="2"/>
+      <c r="H279" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I279" s="4"/>
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
@@ -9831,14 +11655,20 @@
       <c r="X279" s="4"/>
     </row>
     <row r="280">
-      <c r="A280" s="4"/>
+      <c r="A280" s="7" t="s">
+        <v>355</v>
+      </c>
       <c r="B280" s="4"/>
-      <c r="C280" s="4"/>
-      <c r="D280" s="4"/>
-      <c r="E280" s="4"/>
-      <c r="F280" s="4"/>
+      <c r="C280" s="7">
+        <v>179.0</v>
+      </c>
+      <c r="D280" s="7"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="7"/>
       <c r="G280" s="4"/>
-      <c r="H280" s="2"/>
+      <c r="H280" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I280" s="4"/>
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
@@ -9857,14 +11687,20 @@
       <c r="X280" s="4"/>
     </row>
     <row r="281">
-      <c r="A281" s="4"/>
+      <c r="A281" s="7" t="s">
+        <v>356</v>
+      </c>
       <c r="B281" s="4"/>
-      <c r="C281" s="4"/>
-      <c r="D281" s="4"/>
-      <c r="E281" s="4"/>
-      <c r="F281" s="4"/>
+      <c r="C281" s="7">
+        <v>341.0</v>
+      </c>
+      <c r="D281" s="7"/>
+      <c r="E281" s="7"/>
+      <c r="F281" s="7"/>
       <c r="G281" s="4"/>
-      <c r="H281" s="2"/>
+      <c r="H281" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I281" s="4"/>
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
@@ -9883,14 +11719,20 @@
       <c r="X281" s="4"/>
     </row>
     <row r="282">
-      <c r="A282" s="4"/>
+      <c r="A282" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="B282" s="4"/>
-      <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
-      <c r="E282" s="4"/>
-      <c r="F282" s="4"/>
+      <c r="C282" s="7">
+        <v>249.53</v>
+      </c>
+      <c r="D282" s="7"/>
+      <c r="E282" s="7"/>
+      <c r="F282" s="7"/>
       <c r="G282" s="4"/>
-      <c r="H282" s="2"/>
+      <c r="H282" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I282" s="4"/>
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
@@ -9909,14 +11751,20 @@
       <c r="X282" s="4"/>
     </row>
     <row r="283">
-      <c r="A283" s="4"/>
+      <c r="A283" s="7" t="s">
+        <v>358</v>
+      </c>
       <c r="B283" s="4"/>
-      <c r="C283" s="4"/>
-      <c r="D283" s="4"/>
-      <c r="E283" s="4"/>
-      <c r="F283" s="4"/>
+      <c r="C283" s="7">
+        <v>216.84</v>
+      </c>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
       <c r="G283" s="4"/>
-      <c r="H283" s="2"/>
+      <c r="H283" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I283" s="4"/>
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
@@ -9935,14 +11783,20 @@
       <c r="X283" s="4"/>
     </row>
     <row r="284">
-      <c r="A284" s="4"/>
+      <c r="A284" s="7" t="s">
+        <v>359</v>
+      </c>
       <c r="B284" s="4"/>
-      <c r="C284" s="4"/>
-      <c r="D284" s="4"/>
-      <c r="E284" s="4"/>
-      <c r="F284" s="4"/>
+      <c r="C284" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
       <c r="G284" s="4"/>
-      <c r="H284" s="2"/>
+      <c r="H284" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I284" s="4"/>
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
@@ -9961,14 +11815,20 @@
       <c r="X284" s="4"/>
     </row>
     <row r="285">
-      <c r="A285" s="4"/>
+      <c r="A285" s="7" t="s">
+        <v>360</v>
+      </c>
       <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
-      <c r="D285" s="4"/>
-      <c r="E285" s="4"/>
-      <c r="F285" s="4"/>
+      <c r="C285" s="7">
+        <v>37.0</v>
+      </c>
+      <c r="D285" s="7"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="7"/>
       <c r="G285" s="4"/>
-      <c r="H285" s="2"/>
+      <c r="H285" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I285" s="4"/>
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
@@ -9987,14 +11847,20 @@
       <c r="X285" s="4"/>
     </row>
     <row r="286">
-      <c r="A286" s="4"/>
+      <c r="A286" s="7" t="s">
+        <v>361</v>
+      </c>
       <c r="B286" s="4"/>
-      <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
-      <c r="E286" s="4"/>
-      <c r="F286" s="4"/>
+      <c r="C286" s="7">
+        <v>39.48</v>
+      </c>
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
       <c r="G286" s="4"/>
-      <c r="H286" s="2"/>
+      <c r="H286" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I286" s="4"/>
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
@@ -10013,14 +11879,20 @@
       <c r="X286" s="4"/>
     </row>
     <row r="287">
-      <c r="A287" s="4"/>
+      <c r="A287" s="7" t="s">
+        <v>362</v>
+      </c>
       <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="4"/>
-      <c r="F287" s="4"/>
+      <c r="C287" s="7">
+        <v>93.0</v>
+      </c>
+      <c r="D287" s="7"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="7"/>
       <c r="G287" s="4"/>
-      <c r="H287" s="2"/>
+      <c r="H287" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I287" s="4"/>
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
@@ -10039,14 +11911,20 @@
       <c r="X287" s="4"/>
     </row>
     <row r="288">
-      <c r="A288" s="4"/>
+      <c r="A288" s="7" t="s">
+        <v>363</v>
+      </c>
       <c r="B288" s="4"/>
-      <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
-      <c r="E288" s="4"/>
-      <c r="F288" s="4"/>
+      <c r="C288" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="D288" s="7"/>
+      <c r="E288" s="7"/>
+      <c r="F288" s="7"/>
       <c r="G288" s="4"/>
-      <c r="H288" s="2"/>
+      <c r="H288" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I288" s="4"/>
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
@@ -10065,14 +11943,20 @@
       <c r="X288" s="4"/>
     </row>
     <row r="289">
-      <c r="A289" s="4"/>
+      <c r="A289" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="4"/>
-      <c r="E289" s="4"/>
-      <c r="F289" s="4"/>
+      <c r="C289" s="7">
+        <v>145.0</v>
+      </c>
+      <c r="D289" s="7"/>
+      <c r="E289" s="7"/>
+      <c r="F289" s="7"/>
       <c r="G289" s="4"/>
-      <c r="H289" s="2"/>
+      <c r="H289" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I289" s="4"/>
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
@@ -10091,14 +11975,20 @@
       <c r="X289" s="4"/>
     </row>
     <row r="290">
-      <c r="A290" s="4"/>
+      <c r="A290" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4"/>
-      <c r="F290" s="4"/>
+      <c r="C290" s="7">
+        <v>202.0</v>
+      </c>
+      <c r="D290" s="7"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="7"/>
       <c r="G290" s="4"/>
-      <c r="H290" s="2"/>
+      <c r="H290" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I290" s="4"/>
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
@@ -10117,14 +12007,20 @@
       <c r="X290" s="4"/>
     </row>
     <row r="291">
-      <c r="A291" s="4"/>
+      <c r="A291" s="7" t="s">
+        <v>366</v>
+      </c>
       <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
-      <c r="E291" s="4"/>
-      <c r="F291" s="4"/>
+      <c r="C291" s="7">
+        <v>311.72</v>
+      </c>
+      <c r="D291" s="7"/>
+      <c r="E291" s="7"/>
+      <c r="F291" s="7"/>
       <c r="G291" s="4"/>
-      <c r="H291" s="2"/>
+      <c r="H291" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="I291" s="4"/>
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
@@ -10145,7 +12041,7 @@
     <row r="292">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
+      <c r="C292" s="13"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
@@ -28513,20 +30409,750 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="69.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="14">
+        <v>196.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14">
+        <v>466.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15">
+        <f>SUM(A1:A3)</f>
+        <v>862</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="16">
+        <v>384.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="16">
+        <v>343.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="16">
+        <v>351.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="16">
+        <v>298.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="16">
+        <v>311.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="16">
+        <v>298.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="16">
+        <v>1313.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1268.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="16">
+        <v>280.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="16">
+        <v>143.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="16">
+        <v>526.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="16">
+        <v>265.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="16">
+        <v>152.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="16">
+        <v>230.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="16">
+        <v>226.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="16">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="16">
+        <v>277.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="16">
+        <v>252.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="16">
+        <v>268.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="16">
+        <v>225.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="16">
+        <v>239.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="16">
+        <v>325.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="16">
+        <v>216.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="16">
+        <v>289.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="16">
+        <v>351.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="16">
+        <v>353.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="16">
+        <v>362.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="16">
+        <v>311.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="16">
+        <v>212.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="16">
+        <v>339.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="17">
+        <v>341.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="16">
+        <v>338.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" s="16">
+        <v>298.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="16">
+        <v>201.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" s="14">
+        <v>451.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" s="14">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="14">
+        <v>427.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="14">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B44" s="14">
+        <v>436.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="14">
+        <v>142.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="14">
+        <v>405.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="14">
+        <v>186.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="14">
+        <v>394.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" s="14">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" s="14">
+        <v>129.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" s="14">
+        <v>132.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" s="14">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="14">
+        <v>155.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B54" s="14">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" s="14">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" s="14">
+        <v>137.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="14">
+        <v>186.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" s="14">
+        <v>128.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="18.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>199</v>
+      <c r="A1" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="12" t="s">
-        <v>200</v>
+      <c r="B2" s="18" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
